--- a/public/data utilisasi.xlsx
+++ b/public/data utilisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\myapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B2A8C0-BAEB-4C95-97E0-FB30148DD5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68913146-0030-4A77-BD98-50A80967631F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
   </bookViews>
   <sheets>
     <sheet name="sumbagut" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="946">
   <si>
     <t>Ring</t>
   </si>
@@ -1708,6 +1708,1257 @@
   </si>
   <si>
     <t>SBU-PORSEA-NE8000.M14-UPE-02</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>Aceh</t>
+  </si>
+  <si>
+    <t>Brandan</t>
+  </si>
+  <si>
+    <t>Stabat</t>
+  </si>
+  <si>
+    <t>Tele</t>
+  </si>
+  <si>
+    <t>Belawan</t>
+  </si>
+  <si>
+    <t>Sigli</t>
+  </si>
+  <si>
+    <t>Bireun</t>
+  </si>
+  <si>
+    <t>Lhokseumawe</t>
+  </si>
+  <si>
+    <t>Idie</t>
+  </si>
+  <si>
+    <t>Langsa</t>
+  </si>
+  <si>
+    <t>Binjai</t>
+  </si>
+  <si>
+    <t>Payageli</t>
+  </si>
+  <si>
+    <t>Glugur</t>
+  </si>
+  <si>
+    <t>Titikuning</t>
+  </si>
+  <si>
+    <t>Brastagi</t>
+  </si>
+  <si>
+    <t>Sidikalang</t>
+  </si>
+  <si>
+    <t>Tarutung</t>
+  </si>
+  <si>
+    <t>Sibolga</t>
+  </si>
+  <si>
+    <t>Porsea</t>
+  </si>
+  <si>
+    <t>Siantar</t>
+  </si>
+  <si>
+    <t>Seirotan</t>
+  </si>
+  <si>
+    <t>Tebingtinggi</t>
+  </si>
+  <si>
+    <t>Kisaran</t>
+  </si>
+  <si>
+    <t>Kualatanjung</t>
+  </si>
+  <si>
+    <t>Kanopan</t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>Tapaktuan</t>
+  </si>
+  <si>
+    <t>Bakongan</t>
+  </si>
+  <si>
+    <t>Subulusalam</t>
+  </si>
+  <si>
+    <t>Tamora</t>
+  </si>
+  <si>
+    <t>Pakam</t>
+  </si>
+  <si>
+    <t>Perbaungan</t>
+  </si>
+  <si>
+    <t>Medan Timur</t>
+  </si>
+  <si>
+    <t>Ajuen</t>
+  </si>
+  <si>
+    <t>Lamno</t>
+  </si>
+  <si>
+    <t>Calang</t>
+  </si>
+  <si>
+    <t>Teunom</t>
+  </si>
+  <si>
+    <t>Meulobah</t>
+  </si>
+  <si>
+    <t>Nagan Raya</t>
+  </si>
+  <si>
+    <t>Blang Pidie</t>
+  </si>
+  <si>
+    <t>Labuhan Haji</t>
+  </si>
+  <si>
+    <t>Jaga Geumpang</t>
+  </si>
+  <si>
+    <t>Garudasakti</t>
+  </si>
+  <si>
+    <t>Telukkuantan</t>
+  </si>
+  <si>
+    <t>Duri</t>
+  </si>
+  <si>
+    <t>Dumai</t>
+  </si>
+  <si>
+    <t>Grahapena</t>
+  </si>
+  <si>
+    <t>Tanjunguban</t>
+  </si>
+  <si>
+    <t>Sribintan</t>
+  </si>
+  <si>
+    <t>Tanjungpinang</t>
+  </si>
+  <si>
+    <t>Bangkinang</t>
+  </si>
+  <si>
+    <t>Kotopanjang</t>
+  </si>
+  <si>
+    <t>Payakumbuh</t>
+  </si>
+  <si>
+    <t>Panam</t>
+  </si>
+  <si>
+    <t>Pekanbaru</t>
+  </si>
+  <si>
+    <t>Simpangtiga</t>
+  </si>
+  <si>
+    <t>Tenayan</t>
+  </si>
+  <si>
+    <t>Kerinci</t>
+  </si>
+  <si>
+    <t>Rengat</t>
+  </si>
+  <si>
+    <t>Riau</t>
+  </si>
+  <si>
+    <t>Pungut</t>
+  </si>
+  <si>
+    <t>Sukaberenang</t>
+  </si>
+  <si>
+    <t>Airraja</t>
+  </si>
+  <si>
+    <t>Sikaping</t>
+  </si>
+  <si>
+    <t>Pasaman</t>
+  </si>
+  <si>
+    <t>Maninjau</t>
+  </si>
+  <si>
+    <t>Alung</t>
+  </si>
+  <si>
+    <t>Pip</t>
+  </si>
+  <si>
+    <t>Rayonkotabarat</t>
+  </si>
+  <si>
+    <t>Odc.Wrkr</t>
+  </si>
+  <si>
+    <t>Kemilau.Sawit</t>
+  </si>
+  <si>
+    <t>Arengka</t>
+  </si>
+  <si>
+    <t>Pauhlimo</t>
+  </si>
+  <si>
+    <t>Solok</t>
+  </si>
+  <si>
+    <t>Salak</t>
+  </si>
+  <si>
+    <t>Ombilin</t>
+  </si>
+  <si>
+    <t>Kiliranjao</t>
+  </si>
+  <si>
+    <t>Sitiung</t>
+  </si>
+  <si>
+    <t>Rumbai</t>
+  </si>
+  <si>
+    <t>Padang</t>
+  </si>
+  <si>
+    <t>Belanti</t>
+  </si>
+  <si>
+    <t>Kuranji</t>
+  </si>
+  <si>
+    <t>Indarung</t>
+  </si>
+  <si>
+    <t>Bungus</t>
+  </si>
+  <si>
+    <t>Pasir Putih</t>
+  </si>
+  <si>
+    <t>Baloi</t>
+  </si>
+  <si>
+    <t>Kijang</t>
+  </si>
+  <si>
+    <t>Ranting Kijang</t>
+  </si>
+  <si>
+    <t>Padang Luar</t>
+  </si>
+  <si>
+    <t>Simpang Empat</t>
+  </si>
+  <si>
+    <t>Rayonpanam</t>
+  </si>
+  <si>
+    <t>Cyber</t>
+  </si>
+  <si>
+    <t>Shelter</t>
+  </si>
+  <si>
+    <t>Bukit</t>
+  </si>
+  <si>
+    <t>Tarahan</t>
+  </si>
+  <si>
+    <t>Kalianda</t>
+  </si>
+  <si>
+    <t>Pagelaran</t>
+  </si>
+  <si>
+    <t>Natar</t>
+  </si>
+  <si>
+    <t>Tegineneng</t>
+  </si>
+  <si>
+    <t>Kotabumi</t>
+  </si>
+  <si>
+    <t>Baturaja</t>
+  </si>
+  <si>
+    <t>Prabumulih</t>
+  </si>
+  <si>
+    <t>Sutami</t>
+  </si>
+  <si>
+    <t>Sribawono</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Lubuk</t>
+  </si>
+  <si>
+    <t>Rayon</t>
+  </si>
+  <si>
+    <t>Sukamerindu</t>
+  </si>
+  <si>
+    <t>Pekalongan</t>
+  </si>
+  <si>
+    <t>Sarolangun</t>
+  </si>
+  <si>
+    <t>Bangko</t>
+  </si>
+  <si>
+    <t>Aurduri</t>
+  </si>
+  <si>
+    <t>Payoselincah</t>
+  </si>
+  <si>
+    <t>Kramasan</t>
+  </si>
+  <si>
+    <t>Borang</t>
+  </si>
+  <si>
+    <t>Seduduk</t>
+  </si>
+  <si>
+    <t>Pikitring</t>
+  </si>
+  <si>
+    <t>Bukitsiguntang</t>
+  </si>
+  <si>
+    <t>Koba</t>
+  </si>
+  <si>
+    <t>Adijaya</t>
+  </si>
+  <si>
+    <t>Menggala</t>
+  </si>
+  <si>
+    <t>Gumawang</t>
+  </si>
+  <si>
+    <t>Tugu Mulyo</t>
+  </si>
+  <si>
+    <t>Kayu Agung</t>
+  </si>
+  <si>
+    <t>Simpang Tiga</t>
+  </si>
+  <si>
+    <t>Sukarame</t>
+  </si>
+  <si>
+    <t>Ketapang</t>
+  </si>
+  <si>
+    <t>Pringsewu</t>
+  </si>
+  <si>
+    <t>Lampung</t>
+  </si>
+  <si>
+    <t>Lubuk Linggau</t>
+  </si>
+  <si>
+    <t>Lahat</t>
+  </si>
+  <si>
+    <t>Pagar Alam</t>
+  </si>
+  <si>
+    <t>Ranting Tais</t>
+  </si>
+  <si>
+    <t>Nusaindah</t>
+  </si>
+  <si>
+    <t>Muara Bungo</t>
+  </si>
+  <si>
+    <t>Mersam</t>
+  </si>
+  <si>
+    <t>Muara Bulian</t>
+  </si>
+  <si>
+    <t>Jambi</t>
+  </si>
+  <si>
+    <t>Kota baru</t>
+  </si>
+  <si>
+    <t>Muara Sabak</t>
+  </si>
+  <si>
+    <t>Sungai Lilin</t>
+  </si>
+  <si>
+    <t>Betung</t>
+  </si>
+  <si>
+    <t>Talang Kelapa</t>
+  </si>
+  <si>
+    <t>Boombaru</t>
+  </si>
+  <si>
+    <t>Palembang</t>
+  </si>
+  <si>
+    <t>Ws2jb</t>
+  </si>
+  <si>
+    <t>Kenten</t>
+  </si>
+  <si>
+    <t>Tanjung</t>
+  </si>
+  <si>
+    <t>Ranting Muntok</t>
+  </si>
+  <si>
+    <t>Ranting Kelapa</t>
+  </si>
+  <si>
+    <t>Sungai Liat</t>
+  </si>
+  <si>
+    <t>Bangka</t>
+  </si>
+  <si>
+    <t>Kampak</t>
+  </si>
+  <si>
+    <t>Kelapa</t>
+  </si>
+  <si>
+    <t>Bintaro</t>
+  </si>
+  <si>
+    <t>Cikokol</t>
+  </si>
+  <si>
+    <t>Citrahabitat</t>
+  </si>
+  <si>
+    <t>Rangkas</t>
+  </si>
+  <si>
+    <t>Bunar</t>
+  </si>
+  <si>
+    <t>Baru</t>
+  </si>
+  <si>
+    <t>Sentul</t>
+  </si>
+  <si>
+    <t>Technovilage</t>
+  </si>
+  <si>
+    <t>Setiabudi</t>
+  </si>
+  <si>
+    <t>Cyber2</t>
+  </si>
+  <si>
+    <t>Rasuna</t>
+  </si>
+  <si>
+    <t>Cibinong</t>
+  </si>
+  <si>
+    <t>Gandaria</t>
+  </si>
+  <si>
+    <t>Pulogadung</t>
+  </si>
+  <si>
+    <t>Angke</t>
+  </si>
+  <si>
+    <t>Kemayoran</t>
+  </si>
+  <si>
+    <t>Petukangan</t>
+  </si>
+  <si>
+    <t>Kosambi</t>
+  </si>
+  <si>
+    <t>Balaraja</t>
+  </si>
+  <si>
+    <t>Cikande</t>
+  </si>
+  <si>
+    <t>Serang</t>
+  </si>
+  <si>
+    <t>Sunter</t>
+  </si>
+  <si>
+    <t>Duri Kosambi</t>
+  </si>
+  <si>
+    <t>Center Serpong</t>
+  </si>
+  <si>
+    <t>Kebon Jeruk</t>
+  </si>
+  <si>
+    <t>Apd Gambir</t>
+  </si>
+  <si>
+    <t>Bogor Timur</t>
+  </si>
+  <si>
+    <t>Kd Badak</t>
+  </si>
+  <si>
+    <t>Bojong Gede</t>
+  </si>
+  <si>
+    <t>Cimanggis</t>
+  </si>
+  <si>
+    <t>Depok</t>
+  </si>
+  <si>
+    <t>Cileungsi</t>
+  </si>
+  <si>
+    <t>Gi Jababeka</t>
+  </si>
+  <si>
+    <t>Jababeka</t>
+  </si>
+  <si>
+    <t>Bekasi</t>
+  </si>
+  <si>
+    <t>Gi.Serang</t>
+  </si>
+  <si>
+    <t>Gi Cilegon</t>
+  </si>
+  <si>
+    <t>Asahimas</t>
+  </si>
+  <si>
+    <t>Anyer</t>
+  </si>
+  <si>
+    <t>Menes</t>
+  </si>
+  <si>
+    <t>Saketi</t>
+  </si>
+  <si>
+    <t>Shelter.Bekasi</t>
+  </si>
+  <si>
+    <t>Bekasi Kota</t>
+  </si>
+  <si>
+    <t>Kandangsapi</t>
+  </si>
+  <si>
+    <t>Plumpang</t>
+  </si>
+  <si>
+    <t>Sumedang</t>
+  </si>
+  <si>
+    <t>Kadipaten</t>
+  </si>
+  <si>
+    <t>Arjawinangun</t>
+  </si>
+  <si>
+    <t>Jatibarang</t>
+  </si>
+  <si>
+    <t>Indramayu</t>
+  </si>
+  <si>
+    <t>Mundu</t>
+  </si>
+  <si>
+    <t>Sunyaragi</t>
+  </si>
+  <si>
+    <t>Cianjur</t>
+  </si>
+  <si>
+    <t>Padalarang</t>
+  </si>
+  <si>
+    <t>Utara</t>
+  </si>
+  <si>
+    <t>Cigereleng</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Ujungberung</t>
+  </si>
+  <si>
+    <t>Rancaekek</t>
+  </si>
+  <si>
+    <t>Cikasungka</t>
+  </si>
+  <si>
+    <t>Malangbong</t>
+  </si>
+  <si>
+    <t>Tasik</t>
+  </si>
+  <si>
+    <t>Garut</t>
+  </si>
+  <si>
+    <t>Selatan</t>
+  </si>
+  <si>
+    <t>Sukabumi</t>
+  </si>
+  <si>
+    <t>Lembursitu</t>
+  </si>
+  <si>
+    <t>Subang</t>
+  </si>
+  <si>
+    <t>Purwakarta</t>
+  </si>
+  <si>
+    <t>Ciamis</t>
+  </si>
+  <si>
+    <t>Ganjaresik</t>
+  </si>
+  <si>
+    <t>Darmaraja</t>
+  </si>
+  <si>
+    <t>Bandung Selatan</t>
+  </si>
+  <si>
+    <t>Sumedang Kota</t>
+  </si>
+  <si>
+    <t>Weleri</t>
+  </si>
+  <si>
+    <t>Kalasan</t>
+  </si>
+  <si>
+    <t>Salatiga</t>
+  </si>
+  <si>
+    <t>Krapyak</t>
+  </si>
+  <si>
+    <t>Semarang</t>
+  </si>
+  <si>
+    <t>Demak</t>
+  </si>
+  <si>
+    <t>Mranggen</t>
+  </si>
+  <si>
+    <t>Pdlamper</t>
+  </si>
+  <si>
+    <t>Jati</t>
+  </si>
+  <si>
+    <t>Jepara</t>
+  </si>
+  <si>
+    <t>Pati</t>
+  </si>
+  <si>
+    <t>Blora</t>
+  </si>
+  <si>
+    <t>Cepu</t>
+  </si>
+  <si>
+    <t>Bojonegoro</t>
+  </si>
+  <si>
+    <t>Rawalo</t>
+  </si>
+  <si>
+    <t>Wangon</t>
+  </si>
+  <si>
+    <t>Cilacap</t>
+  </si>
+  <si>
+    <t>Pemalang</t>
+  </si>
+  <si>
+    <t>Kentungan</t>
+  </si>
+  <si>
+    <t>Mangkubumi</t>
+  </si>
+  <si>
+    <t>Pedan</t>
+  </si>
+  <si>
+    <t>Klaten</t>
+  </si>
+  <si>
+    <t>Mojosongo</t>
+  </si>
+  <si>
+    <t>Ungaran</t>
+  </si>
+  <si>
+    <t>Purwodadi</t>
+  </si>
+  <si>
+    <t>Kudus</t>
+  </si>
+  <si>
+    <t>Rembang</t>
+  </si>
+  <si>
+    <t>Jajar</t>
+  </si>
+  <si>
+    <t>Sragen</t>
+  </si>
+  <si>
+    <t>Kroya</t>
+  </si>
+  <si>
+    <t>Gombong</t>
+  </si>
+  <si>
+    <t>Kebumen</t>
+  </si>
+  <si>
+    <t>Purworejo</t>
+  </si>
+  <si>
+    <t>Wates</t>
+  </si>
+  <si>
+    <t>Bantul</t>
+  </si>
+  <si>
+    <t>Purwokerto</t>
+  </si>
+  <si>
+    <t>Ajibarang</t>
+  </si>
+  <si>
+    <t>Bumiayu</t>
+  </si>
+  <si>
+    <t>Balapulang</t>
+  </si>
+  <si>
+    <t>Slawi</t>
+  </si>
+  <si>
+    <t>Brebes</t>
+  </si>
+  <si>
+    <t>Tegal</t>
+  </si>
+  <si>
+    <t>Banyumas</t>
+  </si>
+  <si>
+    <t>Banjarnegara</t>
+  </si>
+  <si>
+    <t>Wonosobo</t>
+  </si>
+  <si>
+    <t>Parakan</t>
+  </si>
+  <si>
+    <t>Temanggung</t>
+  </si>
+  <si>
+    <t>Magelang</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Arifin</t>
+  </si>
+  <si>
+    <t>Pakur</t>
+  </si>
+  <si>
+    <t>Karanganyar</t>
+  </si>
+  <si>
+    <t>Grogol</t>
+  </si>
+  <si>
+    <t>Sukoharjo</t>
+  </si>
+  <si>
+    <t>Wonogiri</t>
+  </si>
+  <si>
+    <t>Manisrejo</t>
+  </si>
+  <si>
+    <t>Madiun</t>
+  </si>
+  <si>
+    <t>Ponorogo</t>
+  </si>
+  <si>
+    <t>Trenggalek</t>
+  </si>
+  <si>
+    <t>Tulungagung</t>
+  </si>
+  <si>
+    <t>Caruban</t>
+  </si>
+  <si>
+    <t>Ngawi</t>
+  </si>
+  <si>
+    <t>Banaran</t>
+  </si>
+  <si>
+    <t>Kediri</t>
+  </si>
+  <si>
+    <t>Blitar</t>
+  </si>
+  <si>
+    <t>Wlingi</t>
+  </si>
+  <si>
+    <t>Agung</t>
+  </si>
+  <si>
+    <t>Lawang</t>
+  </si>
+  <si>
+    <t>Batu</t>
+  </si>
+  <si>
+    <t>Malang</t>
+  </si>
+  <si>
+    <t>Pandaan</t>
+  </si>
+  <si>
+    <t>Bangil</t>
+  </si>
+  <si>
+    <t>Gondangwetan</t>
+  </si>
+  <si>
+    <t>Dampit</t>
+  </si>
+  <si>
+    <t>Kepanjen</t>
+  </si>
+  <si>
+    <t>Tumpang</t>
+  </si>
+  <si>
+    <t>Gondanglegi</t>
+  </si>
+  <si>
+    <t>Babat</t>
+  </si>
+  <si>
+    <t>Tuban</t>
+  </si>
+  <si>
+    <t>Brondong</t>
+  </si>
+  <si>
+    <t>Sidayu</t>
+  </si>
+  <si>
+    <t>Gresik</t>
+  </si>
+  <si>
+    <t>Lamongan</t>
+  </si>
+  <si>
+    <t>Waru</t>
+  </si>
+  <si>
+    <t>Darmo</t>
+  </si>
+  <si>
+    <t>Babadan</t>
+  </si>
+  <si>
+    <t>Sidoarjo</t>
+  </si>
+  <si>
+    <t>Porong</t>
+  </si>
+  <si>
+    <t>Ketintang</t>
+  </si>
+  <si>
+    <t>Rungkut</t>
+  </si>
+  <si>
+    <t>Krian</t>
+  </si>
+  <si>
+    <t>Mojosari</t>
+  </si>
+  <si>
+    <t>Mojokerto</t>
+  </si>
+  <si>
+    <t>Mojoagung</t>
+  </si>
+  <si>
+    <t>Jombang</t>
+  </si>
+  <si>
+    <t>Kertosono</t>
+  </si>
+  <si>
+    <t>Nganjuk</t>
+  </si>
+  <si>
+    <t>Sawahan</t>
+  </si>
+  <si>
+    <t>Sier</t>
+  </si>
+  <si>
+    <t>Jatim-Intiland</t>
+  </si>
+  <si>
+    <t>Jember</t>
+  </si>
+  <si>
+    <t>Bondowoso</t>
+  </si>
+  <si>
+    <t>Situbondo</t>
+  </si>
+  <si>
+    <t>Pemaron</t>
+  </si>
+  <si>
+    <t>Baturiti</t>
+  </si>
+  <si>
+    <t>Gianyar</t>
+  </si>
+  <si>
+    <t>Payangan</t>
+  </si>
+  <si>
+    <t>Gilimanuk</t>
+  </si>
+  <si>
+    <t>Antosari</t>
+  </si>
+  <si>
+    <t>Tabanan</t>
+  </si>
+  <si>
+    <t>Pemecutan</t>
+  </si>
+  <si>
+    <t>Pesanggaran</t>
+  </si>
+  <si>
+    <t>Maulafa</t>
+  </si>
+  <si>
+    <t>Naibonat</t>
+  </si>
+  <si>
+    <t>Nonohonis</t>
+  </si>
+  <si>
+    <t>Kefamenanu</t>
+  </si>
+  <si>
+    <t>Singaraja</t>
+  </si>
+  <si>
+    <t>Tejakula</t>
+  </si>
+  <si>
+    <t>Amlapura</t>
+  </si>
+  <si>
+    <t>Kapal</t>
+  </si>
+  <si>
+    <t>Ubud</t>
+  </si>
+  <si>
+    <t>Bangli</t>
+  </si>
+  <si>
+    <t>Kintamani</t>
+  </si>
+  <si>
+    <t>Negara</t>
+  </si>
+  <si>
+    <t>Mtrm.Senggigi</t>
+  </si>
+  <si>
+    <t>Mtrm.Tanjung</t>
+  </si>
+  <si>
+    <t>Mtrm.Bayan</t>
+  </si>
+  <si>
+    <t>Mtrm.Sambelia</t>
+  </si>
+  <si>
+    <t>Mtrm.Selong</t>
+  </si>
+  <si>
+    <t>Mtrm.Praya</t>
+  </si>
+  <si>
+    <t>Mtrm.Kediri</t>
+  </si>
+  <si>
+    <t>Bali Timur</t>
+  </si>
+  <si>
+    <t>Sanur</t>
+  </si>
+  <si>
+    <t>Sengigi</t>
+  </si>
+  <si>
+    <t>Karang Joang</t>
+  </si>
+  <si>
+    <t>Balikpapan</t>
+  </si>
+  <si>
+    <t>Manggarsari</t>
+  </si>
+  <si>
+    <t>Senipah</t>
+  </si>
+  <si>
+    <t>Muara Jawa</t>
+  </si>
+  <si>
+    <t>Bukuan</t>
+  </si>
+  <si>
+    <t>Harapan Baru</t>
+  </si>
+  <si>
+    <t>Ulin</t>
+  </si>
+  <si>
+    <t>Cempaka</t>
+  </si>
+  <si>
+    <t>Rantau</t>
+  </si>
+  <si>
+    <t>Barikin</t>
+  </si>
+  <si>
+    <t>Komam</t>
+  </si>
+  <si>
+    <t>Longikis</t>
+  </si>
+  <si>
+    <t>Panajam.Petung</t>
+  </si>
+  <si>
+    <t>Palangkaraya</t>
+  </si>
+  <si>
+    <t>Mintin</t>
+  </si>
+  <si>
+    <t>Selatkapuas</t>
+  </si>
+  <si>
+    <t>Pontianak</t>
+  </si>
+  <si>
+    <t>Siantan.Potianak</t>
+  </si>
+  <si>
+    <t>Gi.Senggiring</t>
+  </si>
+  <si>
+    <t>Saigon.Pnk</t>
+  </si>
+  <si>
+    <t>Siantan.Pontianak</t>
+  </si>
+  <si>
+    <t>Kuaro</t>
+  </si>
+  <si>
+    <t>Karingau</t>
+  </si>
+  <si>
+    <t>Sebangau</t>
+  </si>
+  <si>
+    <t>Senggiring</t>
+  </si>
+  <si>
+    <t>Jatim Waru</t>
+  </si>
+  <si>
+    <t>Kima</t>
+  </si>
+  <si>
+    <t>Tello</t>
+  </si>
+  <si>
+    <t>Parepare</t>
+  </si>
+  <si>
+    <t>Sidrap</t>
+  </si>
+  <si>
+    <t>Talise</t>
+  </si>
+  <si>
+    <t>Botupingge</t>
+  </si>
+  <si>
+    <t>Palopo</t>
+  </si>
+  <si>
+    <t>Daya</t>
+  </si>
+  <si>
+    <t>Panakukang</t>
+  </si>
+  <si>
+    <t>Sungguminasa</t>
+  </si>
+  <si>
+    <t>Tallasa</t>
+  </si>
+  <si>
+    <t>Jeneponto</t>
+  </si>
+  <si>
+    <t>Bulukumba</t>
+  </si>
+  <si>
+    <t>Sinjai</t>
+  </si>
+  <si>
+    <t>Bone</t>
+  </si>
+  <si>
+    <t>Soppeng</t>
+  </si>
+  <si>
+    <t>Makale</t>
+  </si>
+  <si>
+    <t>Manado</t>
+  </si>
+  <si>
+    <t>Ranomut</t>
+  </si>
+  <si>
+    <t>Sawangan</t>
+  </si>
+  <si>
+    <t>Tonsea</t>
+  </si>
+  <si>
+    <t>Tomohon</t>
+  </si>
+  <si>
+    <t>Telling</t>
+  </si>
+  <si>
+    <t>Puuwatu</t>
+  </si>
+  <si>
+    <t>Almira</t>
+  </si>
+  <si>
+    <t>Damkar</t>
+  </si>
+  <si>
+    <t>Sulutenggo</t>
+  </si>
+  <si>
+    <t>Kendari</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +3044,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1816,6 +3067,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1828,7 +3088,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1852,14 +3112,44 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2179,20 +3469,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086B36CC-6BF7-4A6F-A4D4-40503F5C0013}">
-  <dimension ref="A2:D60"/>
+  <dimension ref="A2:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E60" sqref="C2:E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2202,8 +3493,11 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2216,8 +3510,11 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2230,8 +3527,11 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2244,8 +3544,11 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2258,8 +3561,11 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2272,8 +3578,11 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2286,8 +3595,11 @@
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2300,8 +3612,11 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2314,8 +3629,11 @@
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2328,8 +3646,11 @@
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2342,8 +3663,11 @@
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2356,8 +3680,11 @@
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2370,8 +3697,11 @@
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2384,8 +3714,11 @@
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2398,8 +3731,11 @@
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2412,8 +3748,11 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2426,8 +3765,11 @@
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2440,8 +3782,11 @@
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2454,8 +3799,11 @@
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="7">
         <v>19</v>
       </c>
@@ -2468,8 +3816,11 @@
       <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -2482,8 +3833,11 @@
       <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="7">
         <v>21</v>
       </c>
@@ -2496,8 +3850,11 @@
       <c r="D23" s="8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="7">
         <v>22</v>
       </c>
@@ -2507,11 +3864,14 @@
       <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2524,8 +3884,11 @@
       <c r="D25" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2538,8 +3901,11 @@
       <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2552,8 +3918,11 @@
       <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2566,8 +3935,11 @@
       <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2580,8 +3952,11 @@
       <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2594,8 +3969,11 @@
       <c r="D30" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2608,8 +3986,11 @@
       <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2622,8 +4003,11 @@
       <c r="D32" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2636,8 +4020,11 @@
       <c r="D33" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2650,8 +4037,11 @@
       <c r="D34" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2664,8 +4054,11 @@
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2678,8 +4071,11 @@
       <c r="D36" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2692,8 +4088,11 @@
       <c r="D37" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2706,8 +4105,11 @@
       <c r="D38" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2720,8 +4122,11 @@
       <c r="D39" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2734,8 +4139,11 @@
       <c r="D40" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2748,8 +4156,11 @@
       <c r="D41" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2762,8 +4173,11 @@
       <c r="D42" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2776,8 +4190,11 @@
       <c r="D43" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2790,8 +4207,11 @@
       <c r="D44" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2804,8 +4224,11 @@
       <c r="D45" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2818,8 +4241,11 @@
       <c r="D46" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2832,8 +4258,11 @@
       <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2846,8 +4275,11 @@
       <c r="D48" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2860,8 +4292,11 @@
       <c r="D49" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2874,8 +4309,11 @@
       <c r="D50" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2888,8 +4326,11 @@
       <c r="D51" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2902,8 +4343,11 @@
       <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2916,8 +4360,11 @@
       <c r="D53" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2930,8 +4377,11 @@
       <c r="D54" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2944,8 +4394,11 @@
       <c r="D55" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2958,8 +4411,11 @@
       <c r="D56" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2972,8 +4428,11 @@
       <c r="D57" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2986,8 +4445,11 @@
       <c r="D58" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3000,8 +4462,11 @@
       <c r="D59" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3013,6 +4478,9 @@
       </c>
       <c r="D60" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -3023,456 +4491,578 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917118A0-60AE-46CB-8B43-93934C46C9DE}">
-  <dimension ref="B2:D41"/>
+  <dimension ref="B2:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="54.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="10" t="s">
+      <c r="E2" s="19" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="10" t="s">
+      <c r="E3" s="20" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="10" t="s">
+      <c r="E4" s="20" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="10" t="s">
+      <c r="E5" s="20" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="10" t="s">
+      <c r="E6" s="21" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="10" t="s">
+      <c r="E7" s="21" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="10" t="s">
+      <c r="E8" s="21" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="10" t="s">
+      <c r="E9" s="21" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="10" t="s">
+      <c r="E10" s="21" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="10" t="s">
+      <c r="E11" s="21" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="10" t="s">
+      <c r="E12" s="21" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="10" t="s">
+      <c r="E13" s="21" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="10" t="s">
+      <c r="E14" s="21" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="10" t="s">
+      <c r="E15" s="21" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="10" t="s">
+      <c r="E16" s="21" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="10" t="s">
+      <c r="E17" s="21" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="10" t="s">
+      <c r="E18" s="21" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="10" t="s">
+      <c r="E19" s="21" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="10" t="s">
+      <c r="E20" s="21" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="10" t="s">
+      <c r="E21" s="21" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="10" t="s">
+      <c r="E22" s="21" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="10" t="s">
+      <c r="E23" s="21" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="10" t="s">
+      <c r="E24" s="21" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="10" t="s">
+      <c r="E25" s="21" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="10" t="s">
+      <c r="E26" s="21" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="10" t="s">
+      <c r="E27" s="21" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="10" t="s">
+      <c r="E28" s="21" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="10" t="s">
+      <c r="E29" s="21" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="10" t="s">
+      <c r="E30" s="21" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="10" t="s">
+      <c r="E31" s="21" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="10" t="s">
+      <c r="E32" s="21" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="10" t="s">
+      <c r="E33" s="21" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="10" t="s">
+      <c r="E34" s="21" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="10" t="s">
+      <c r="E35" s="21" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="10" t="s">
+      <c r="E36" s="21" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="9" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="10" t="s">
+      <c r="E37" s="21" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="10" t="s">
+      <c r="E38" s="21" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="10" t="s">
+      <c r="E39" s="21" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="10" t="s">
+      <c r="E40" s="21" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>504</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -3482,19 +5072,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C7BD66-863C-455D-8F0D-8E1F7498274F}">
-  <dimension ref="B2:D68"/>
+  <dimension ref="B2:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
@@ -3504,8 +5095,11 @@
       <c r="D2" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3515,8 +5109,11 @@
       <c r="D3" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3526,8 +5123,11 @@
       <c r="D4" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +5137,11 @@
       <c r="D5" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="13" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +5151,11 @@
       <c r="D6" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -3559,8 +5165,11 @@
       <c r="D7" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -3570,8 +5179,11 @@
       <c r="D8" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="14" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
@@ -3581,8 +5193,11 @@
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="14" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -3592,8 +5207,11 @@
       <c r="D10" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -3603,8 +5221,11 @@
       <c r="D11" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="14" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
@@ -3614,8 +5235,11 @@
       <c r="D12" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -3625,8 +5249,11 @@
       <c r="D13" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -3636,8 +5263,11 @@
       <c r="D14" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -3647,8 +5277,11 @@
       <c r="D15" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -3658,8 +5291,11 @@
       <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
@@ -3669,8 +5305,11 @@
       <c r="D17" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="14" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
@@ -3680,8 +5319,11 @@
       <c r="D18" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
         <v>26</v>
       </c>
@@ -3691,8 +5333,11 @@
       <c r="D19" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19" s="14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
@@ -3702,8 +5347,11 @@
       <c r="D20" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
@@ -3713,8 +5361,11 @@
       <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
@@ -3724,8 +5375,11 @@
       <c r="D22" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
@@ -3735,8 +5389,11 @@
       <c r="D23" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
@@ -3746,8 +5403,11 @@
       <c r="D24" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
@@ -3757,8 +5417,11 @@
       <c r="D25" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
         <v>33</v>
       </c>
@@ -3768,8 +5431,11 @@
       <c r="D26" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
@@ -3779,8 +5445,11 @@
       <c r="D27" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
         <v>33</v>
       </c>
@@ -3790,8 +5459,11 @@
       <c r="D28" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
         <v>33</v>
       </c>
@@ -3801,8 +5473,11 @@
       <c r="D29" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29" s="14" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
@@ -3812,8 +5487,11 @@
       <c r="D30" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
@@ -3823,8 +5501,11 @@
       <c r="D31" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
@@ -3834,8 +5515,11 @@
       <c r="D32" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32" s="14" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
@@ -3845,8 +5529,11 @@
       <c r="D33" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="4" t="s">
         <v>38</v>
       </c>
@@ -3856,8 +5543,11 @@
       <c r="D34" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
@@ -3867,8 +5557,11 @@
       <c r="D35" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35" s="14" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="4" t="s">
         <v>53</v>
       </c>
@@ -3878,8 +5571,11 @@
       <c r="D36" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="4" t="s">
         <v>53</v>
       </c>
@@ -3889,8 +5585,11 @@
       <c r="D37" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
+      <c r="E37" s="14" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="4" t="s">
         <v>53</v>
       </c>
@@ -3900,8 +5599,11 @@
       <c r="D38" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="E38" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="4" t="s">
         <v>53</v>
       </c>
@@ -3911,8 +5613,11 @@
       <c r="D39" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
+      <c r="E39" s="14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="4" t="s">
         <v>53</v>
       </c>
@@ -3922,8 +5627,11 @@
       <c r="D40" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
+      <c r="E40" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="4" t="s">
         <v>53</v>
       </c>
@@ -3933,8 +5641,11 @@
       <c r="D41" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="2:4">
+      <c r="E41" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" s="4" t="s">
         <v>53</v>
       </c>
@@ -3944,8 +5655,11 @@
       <c r="D42" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="2:4">
+      <c r="E42" s="14" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" s="4" t="s">
         <v>53</v>
       </c>
@@ -3955,8 +5669,11 @@
       <c r="D43" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="2:4">
+      <c r="E43" s="14" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" s="4" t="s">
         <v>98</v>
       </c>
@@ -3966,8 +5683,11 @@
       <c r="D44" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
+      <c r="E44" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
       <c r="B45" s="4" t="s">
         <v>98</v>
       </c>
@@ -3977,8 +5697,11 @@
       <c r="D45" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:4">
+      <c r="E45" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
       <c r="B46" s="4" t="s">
         <v>98</v>
       </c>
@@ -3988,8 +5711,11 @@
       <c r="D46" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="47" spans="2:4">
+      <c r="E46" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
       <c r="B47" s="4" t="s">
         <v>98</v>
       </c>
@@ -3999,8 +5725,11 @@
       <c r="D47" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="2:4">
+      <c r="E47" s="14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
       <c r="B48" s="4" t="s">
         <v>98</v>
       </c>
@@ -4010,8 +5739,11 @@
       <c r="D48" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="2:4">
+      <c r="E48" s="14" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
       <c r="B49" s="4" t="s">
         <v>98</v>
       </c>
@@ -4021,8 +5753,11 @@
       <c r="D49" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="50" spans="2:4">
+      <c r="E49" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50" s="4" t="s">
         <v>98</v>
       </c>
@@ -4032,8 +5767,11 @@
       <c r="D50" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="2:4">
+      <c r="E50" s="14" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51" s="4" t="s">
         <v>98</v>
       </c>
@@ -4043,8 +5781,11 @@
       <c r="D51" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="52" spans="2:4">
+      <c r="E51" s="14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52" s="4" t="s">
         <v>107</v>
       </c>
@@ -4054,8 +5795,11 @@
       <c r="D52" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="53" spans="2:4">
+      <c r="E52" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
       <c r="B53" s="4" t="s">
         <v>107</v>
       </c>
@@ -4065,8 +5809,11 @@
       <c r="D53" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="54" spans="2:4">
+      <c r="E53" s="14" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
       <c r="B54" s="4" t="s">
         <v>107</v>
       </c>
@@ -4076,8 +5823,11 @@
       <c r="D54" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="55" spans="2:4">
+      <c r="E54" s="14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
       <c r="B55" s="4" t="s">
         <v>107</v>
       </c>
@@ -4087,8 +5837,11 @@
       <c r="D55" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="2:4">
+      <c r="E55" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" s="4" t="s">
         <v>107</v>
       </c>
@@ -4098,8 +5851,11 @@
       <c r="D56" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="2:4">
+      <c r="E56" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57" s="4" t="s">
         <v>107</v>
       </c>
@@ -4109,8 +5865,11 @@
       <c r="D57" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="2:4">
+      <c r="E57" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="4" t="s">
         <v>107</v>
       </c>
@@ -4120,8 +5879,11 @@
       <c r="D58" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="59" spans="2:4">
+      <c r="E58" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
@@ -4131,8 +5893,11 @@
       <c r="D59" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="2:4">
+      <c r="E59" s="14" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" s="4" t="s">
         <v>111</v>
       </c>
@@ -4142,8 +5907,11 @@
       <c r="D60" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="61" spans="2:4">
+      <c r="E60" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
       <c r="B61" s="4" t="s">
         <v>111</v>
       </c>
@@ -4153,8 +5921,11 @@
       <c r="D61" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="62" spans="2:4">
+      <c r="E61" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
       <c r="B62" s="4" t="s">
         <v>114</v>
       </c>
@@ -4164,8 +5935,11 @@
       <c r="D62" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="63" spans="2:4">
+      <c r="E62" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
       <c r="B63" s="4" t="s">
         <v>114</v>
       </c>
@@ -4175,8 +5949,11 @@
       <c r="D63" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="2:4">
+      <c r="E63" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
       <c r="B64" s="4" t="s">
         <v>114</v>
       </c>
@@ -4186,8 +5963,11 @@
       <c r="D64" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="65" spans="2:4">
+      <c r="E64" s="14" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65" s="4" t="s">
         <v>114</v>
       </c>
@@ -4197,8 +5977,11 @@
       <c r="D65" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="66" spans="2:4">
+      <c r="E65" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" s="4" t="s">
         <v>114</v>
       </c>
@@ -4208,8 +5991,11 @@
       <c r="D66" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="67" spans="2:4">
+      <c r="E66" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
       <c r="B67" s="4" t="s">
         <v>114</v>
       </c>
@@ -4219,8 +6005,11 @@
       <c r="D67" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="68" spans="2:4">
+      <c r="E67" s="14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
       <c r="B68" s="4" t="s">
         <v>114</v>
       </c>
@@ -4229,6 +6018,9 @@
       </c>
       <c r="D68" s="4" t="s">
         <v>97</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -4238,20 +6030,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE57ADC-EF66-4A86-8D55-95202DAEC146}">
-  <dimension ref="B2:D88"/>
+  <dimension ref="B2:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
@@ -4261,8 +6054,11 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4272,8 +6068,11 @@
       <c r="D3" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -4283,8 +6082,11 @@
       <c r="D4" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="13" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -4294,8 +6096,11 @@
       <c r="D5" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="13" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4305,8 +6110,11 @@
       <c r="D6" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -4316,8 +6124,11 @@
       <c r="D7" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="14" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -4327,8 +6138,11 @@
       <c r="D8" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
@@ -4338,8 +6152,11 @@
       <c r="D9" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="14" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
@@ -4349,8 +6166,11 @@
       <c r="D10" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +6180,11 @@
       <c r="D11" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -4371,8 +6194,11 @@
       <c r="D12" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -4382,8 +6208,11 @@
       <c r="D13" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -4393,8 +6222,11 @@
       <c r="D14" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -4404,8 +6236,11 @@
       <c r="D15" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="14" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -4415,8 +6250,11 @@
       <c r="D16" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
@@ -4426,8 +6264,11 @@
       <c r="D17" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
@@ -4437,8 +6278,11 @@
       <c r="D18" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
@@ -4448,8 +6292,11 @@
       <c r="D19" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19" s="14" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
@@ -4459,8 +6306,11 @@
       <c r="D20" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
@@ -4470,8 +6320,11 @@
       <c r="D21" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
@@ -4481,8 +6334,11 @@
       <c r="D22" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22" s="14" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
@@ -4492,8 +6348,11 @@
       <c r="D23" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
@@ -4503,8 +6362,11 @@
       <c r="D24" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
@@ -4514,8 +6376,11 @@
       <c r="D25" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
@@ -4525,8 +6390,11 @@
       <c r="D26" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="14" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
@@ -4536,8 +6404,11 @@
       <c r="D27" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="14" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
@@ -4547,8 +6418,11 @@
       <c r="D28" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28" s="14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
@@ -4558,8 +6432,11 @@
       <c r="D29" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
         <v>26</v>
       </c>
@@ -4569,8 +6446,11 @@
       <c r="D30" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
         <v>33</v>
       </c>
@@ -4580,8 +6460,11 @@
       <c r="D31" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
@@ -4591,8 +6474,11 @@
       <c r="D32" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
@@ -4602,8 +6488,11 @@
       <c r="D33" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
@@ -4613,8 +6502,11 @@
       <c r="D34" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34" s="14" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
@@ -4624,8 +6516,11 @@
       <c r="D35" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35" s="14" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="4" t="s">
         <v>33</v>
       </c>
@@ -4635,8 +6530,11 @@
       <c r="D36" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
@@ -4646,8 +6544,11 @@
       <c r="D37" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
+      <c r="E37" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="4" t="s">
         <v>33</v>
       </c>
@@ -4657,8 +6558,11 @@
       <c r="D38" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="E38" s="14" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
@@ -4668,8 +6572,11 @@
       <c r="D39" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
+      <c r="E39" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="4" t="s">
         <v>38</v>
       </c>
@@ -4679,8 +6586,11 @@
       <c r="D40" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
+      <c r="E40" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
@@ -4690,8 +6600,11 @@
       <c r="D41" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="2:4">
+      <c r="E41" s="14" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" s="4" t="s">
         <v>38</v>
       </c>
@@ -4701,8 +6614,11 @@
       <c r="D42" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="43" spans="2:4">
+      <c r="E42" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" s="4" t="s">
         <v>38</v>
       </c>
@@ -4712,8 +6628,11 @@
       <c r="D43" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="2:4">
+      <c r="E43" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
@@ -4723,8 +6642,11 @@
       <c r="D44" s="4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
+      <c r="E44" s="14" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
       <c r="B45" s="4" t="s">
         <v>38</v>
       </c>
@@ -4734,8 +6656,11 @@
       <c r="D45" s="4" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="46" spans="2:4">
+      <c r="E45" s="14" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
       <c r="B46" s="4" t="s">
         <v>38</v>
       </c>
@@ -4745,8 +6670,11 @@
       <c r="D46" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="47" spans="2:4">
+      <c r="E46" s="14" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
       <c r="B47" s="4" t="s">
         <v>53</v>
       </c>
@@ -4756,8 +6684,11 @@
       <c r="D47" s="4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="48" spans="2:4">
+      <c r="E47" s="14" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
       <c r="B48" s="4" t="s">
         <v>53</v>
       </c>
@@ -4767,8 +6698,11 @@
       <c r="D48" s="4" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="49" spans="2:4">
+      <c r="E48" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
       <c r="B49" s="4" t="s">
         <v>53</v>
       </c>
@@ -4778,8 +6712,11 @@
       <c r="D49" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="50" spans="2:4">
+      <c r="E49" s="14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
@@ -4789,8 +6726,11 @@
       <c r="D50" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" spans="2:4">
+      <c r="E50" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51" s="4" t="s">
         <v>53</v>
       </c>
@@ -4800,8 +6740,11 @@
       <c r="D51" s="4" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="2:4">
+      <c r="E51" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52" s="4" t="s">
         <v>98</v>
       </c>
@@ -4811,8 +6754,11 @@
       <c r="D52" s="4" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="53" spans="2:4">
+      <c r="E52" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
       <c r="B53" s="4" t="s">
         <v>98</v>
       </c>
@@ -4822,8 +6768,11 @@
       <c r="D53" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="54" spans="2:4">
+      <c r="E53" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
       <c r="B54" s="4" t="s">
         <v>98</v>
       </c>
@@ -4833,8 +6782,11 @@
       <c r="D54" s="4" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="55" spans="2:4">
+      <c r="E54" s="14" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
       <c r="B55" s="4" t="s">
         <v>98</v>
       </c>
@@ -4844,8 +6796,11 @@
       <c r="D55" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="56" spans="2:4">
+      <c r="E55" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" s="4" t="s">
         <v>107</v>
       </c>
@@ -4855,8 +6810,11 @@
       <c r="D56" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="57" spans="2:4">
+      <c r="E56" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57" s="4" t="s">
         <v>107</v>
       </c>
@@ -4866,8 +6824,11 @@
       <c r="D57" s="4" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="58" spans="2:4">
+      <c r="E57" s="14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="4" t="s">
         <v>107</v>
       </c>
@@ -4877,8 +6838,11 @@
       <c r="D58" s="4" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="59" spans="2:4">
+      <c r="E58" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="4" t="s">
         <v>107</v>
       </c>
@@ -4888,8 +6852,11 @@
       <c r="D59" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="60" spans="2:4">
+      <c r="E59" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" s="4" t="s">
         <v>107</v>
       </c>
@@ -4899,8 +6866,11 @@
       <c r="D60" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="61" spans="2:4">
+      <c r="E60" s="14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
       <c r="B61" s="4" t="s">
         <v>107</v>
       </c>
@@ -4910,8 +6880,11 @@
       <c r="D61" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="62" spans="2:4">
+      <c r="E61" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
       <c r="B62" s="4" t="s">
         <v>111</v>
       </c>
@@ -4921,8 +6894,11 @@
       <c r="D62" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="63" spans="2:4">
+      <c r="E62" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
       <c r="B63" s="4" t="s">
         <v>111</v>
       </c>
@@ -4932,8 +6908,11 @@
       <c r="D63" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="64" spans="2:4">
+      <c r="E63" s="14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
       <c r="B64" s="4" t="s">
         <v>111</v>
       </c>
@@ -4943,8 +6922,11 @@
       <c r="D64" s="4" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="65" spans="2:4">
+      <c r="E64" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65" s="4" t="s">
         <v>111</v>
       </c>
@@ -4954,8 +6936,11 @@
       <c r="D65" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="66" spans="2:4">
+      <c r="E65" s="14" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" s="4" t="s">
         <v>111</v>
       </c>
@@ -4965,8 +6950,11 @@
       <c r="D66" s="4" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="67" spans="2:4">
+      <c r="E66" s="14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
       <c r="B67" s="4" t="s">
         <v>111</v>
       </c>
@@ -4976,8 +6964,11 @@
       <c r="D67" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68" spans="2:4">
+      <c r="E67" s="14" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
       <c r="B68" s="4" t="s">
         <v>114</v>
       </c>
@@ -4987,8 +6978,11 @@
       <c r="D68" s="4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="69" spans="2:4">
+      <c r="E68" s="14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
       <c r="B69" s="4" t="s">
         <v>114</v>
       </c>
@@ -4998,8 +6992,11 @@
       <c r="D69" s="4" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="70" spans="2:4">
+      <c r="E69" s="14" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
       <c r="B70" s="4" t="s">
         <v>114</v>
       </c>
@@ -5009,8 +7006,11 @@
       <c r="D70" s="4" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="71" spans="2:4">
+      <c r="E70" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
       <c r="B71" s="4" t="s">
         <v>114</v>
       </c>
@@ -5020,8 +7020,11 @@
       <c r="D71" s="4" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="72" spans="2:4">
+      <c r="E71" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
       <c r="B72" s="4" t="s">
         <v>114</v>
       </c>
@@ -5031,8 +7034,11 @@
       <c r="D72" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="73" spans="2:4">
+      <c r="E72" s="14" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
       <c r="B73" s="4" t="s">
         <v>114</v>
       </c>
@@ -5042,8 +7048,11 @@
       <c r="D73" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="74" spans="2:4">
+      <c r="E73" s="14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
       <c r="B74" s="4" t="s">
         <v>114</v>
       </c>
@@ -5053,8 +7062,11 @@
       <c r="D74" s="4" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="75" spans="2:4">
+      <c r="E74" s="14" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
       <c r="B75" s="4" t="s">
         <v>191</v>
       </c>
@@ -5064,8 +7076,11 @@
       <c r="D75" s="4" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="76" spans="2:4">
+      <c r="E75" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
       <c r="B76" s="4" t="s">
         <v>191</v>
       </c>
@@ -5075,8 +7090,11 @@
       <c r="D76" s="4" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="77" spans="2:4">
+      <c r="E76" s="14" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
       <c r="B77" s="4" t="s">
         <v>191</v>
       </c>
@@ -5086,8 +7104,11 @@
       <c r="D77" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="78" spans="2:4">
+      <c r="E77" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
       <c r="B78" s="4" t="s">
         <v>191</v>
       </c>
@@ -5097,8 +7118,11 @@
       <c r="D78" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="79" spans="2:4">
+      <c r="E78" s="14" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
       <c r="B79" s="4" t="s">
         <v>191</v>
       </c>
@@ -5108,8 +7132,11 @@
       <c r="D79" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="80" spans="2:4">
+      <c r="E79" s="14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
       <c r="B80" s="4" t="s">
         <v>191</v>
       </c>
@@ -5119,8 +7146,11 @@
       <c r="D80" s="4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="81" spans="2:4">
+      <c r="E80" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
       <c r="B81" s="4" t="s">
         <v>191</v>
       </c>
@@ -5130,8 +7160,11 @@
       <c r="D81" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="82" spans="2:4">
+      <c r="E81" s="14" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
       <c r="B82" s="4" t="s">
         <v>191</v>
       </c>
@@ -5141,8 +7174,11 @@
       <c r="D82" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="83" spans="2:4">
+      <c r="E82" s="14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
       <c r="B83" s="4" t="s">
         <v>191</v>
       </c>
@@ -5152,8 +7188,11 @@
       <c r="D83" s="4" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="2:4">
+      <c r="E83" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
       <c r="B84" s="4" t="s">
         <v>191</v>
       </c>
@@ -5163,8 +7202,11 @@
       <c r="D84" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="85" spans="2:4">
+      <c r="E84" s="14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
       <c r="B85" s="4" t="s">
         <v>191</v>
       </c>
@@ -5174,8 +7216,11 @@
       <c r="D85" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="86" spans="2:4">
+      <c r="E85" s="14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
       <c r="B86" s="4" t="s">
         <v>191</v>
       </c>
@@ -5185,8 +7230,11 @@
       <c r="D86" s="4" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="87" spans="2:4">
+      <c r="E86" s="14" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
       <c r="B87" s="4" t="s">
         <v>191</v>
       </c>
@@ -5196,8 +7244,11 @@
       <c r="D87" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="88" spans="2:4">
+      <c r="E87" s="14" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
       <c r="B88" s="4" t="s">
         <v>191</v>
       </c>
@@ -5206,6 +7257,9 @@
       </c>
       <c r="D88" s="4" t="s">
         <v>194</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -5215,19 +7269,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE20B5F5-E631-460D-A915-E4D905B53D35}">
-  <dimension ref="B2:D60"/>
+  <dimension ref="B2:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
@@ -5237,8 +7292,11 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -5248,8 +7306,11 @@
       <c r="D3" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -5259,8 +7320,11 @@
       <c r="D4" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -5270,8 +7334,11 @@
       <c r="D5" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
@@ -5281,8 +7348,11 @@
       <c r="D6" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="16" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -5292,8 +7362,11 @@
       <c r="D7" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="16" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
@@ -5303,8 +7376,11 @@
       <c r="D8" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -5314,8 +7390,11 @@
       <c r="D9" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="17" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -5325,8 +7404,11 @@
       <c r="D10" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -5336,8 +7418,11 @@
       <c r="D11" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
@@ -5347,8 +7432,11 @@
       <c r="D12" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
@@ -5358,8 +7446,11 @@
       <c r="D13" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="17" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
@@ -5369,8 +7460,11 @@
       <c r="D14" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="17" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
@@ -5380,8 +7474,11 @@
       <c r="D15" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="17" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
@@ -5391,8 +7488,11 @@
       <c r="D16" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
@@ -5402,8 +7502,11 @@
       <c r="D17" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
@@ -5413,8 +7516,11 @@
       <c r="D18" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
@@ -5424,8 +7530,11 @@
       <c r="D19" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19" s="17" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
@@ -5435,8 +7544,11 @@
       <c r="D20" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
@@ -5446,8 +7558,11 @@
       <c r="D21" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5457,8 +7572,11 @@
       <c r="D22" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="6" t="s">
         <v>16</v>
       </c>
@@ -5468,8 +7586,11 @@
       <c r="D23" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
@@ -5479,8 +7600,11 @@
       <c r="D24" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="17" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
@@ -5490,8 +7614,11 @@
       <c r="D25" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
@@ -5501,8 +7628,11 @@
       <c r="D26" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="17" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
@@ -5512,8 +7642,11 @@
       <c r="D27" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="6" t="s">
         <v>26</v>
       </c>
@@ -5523,8 +7656,11 @@
       <c r="D28" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="6" t="s">
         <v>26</v>
       </c>
@@ -5534,8 +7670,11 @@
       <c r="D29" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="6" t="s">
         <v>33</v>
       </c>
@@ -5545,8 +7684,11 @@
       <c r="D30" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
@@ -5556,8 +7698,11 @@
       <c r="D31" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
@@ -5567,8 +7712,11 @@
       <c r="D32" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
@@ -5578,8 +7726,11 @@
       <c r="D33" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="6" t="s">
         <v>33</v>
       </c>
@@ -5589,8 +7740,11 @@
       <c r="D34" s="6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
@@ -5600,8 +7754,11 @@
       <c r="D35" s="6" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35" s="17" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="6" t="s">
         <v>38</v>
       </c>
@@ -5611,8 +7768,11 @@
       <c r="D36" s="6" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
@@ -5622,8 +7782,11 @@
       <c r="D37" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
+      <c r="E37" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
@@ -5633,8 +7796,11 @@
       <c r="D38" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="E38" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="6" t="s">
         <v>38</v>
       </c>
@@ -5644,8 +7810,11 @@
       <c r="D39" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
+      <c r="E39" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="6" t="s">
         <v>38</v>
       </c>
@@ -5655,8 +7824,11 @@
       <c r="D40" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
+      <c r="E40" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="6" t="s">
         <v>53</v>
       </c>
@@ -5666,8 +7838,11 @@
       <c r="D41" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="42" spans="2:4">
+      <c r="E41" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" s="6" t="s">
         <v>53</v>
       </c>
@@ -5677,8 +7852,11 @@
       <c r="D42" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="43" spans="2:4">
+      <c r="E42" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" s="6" t="s">
         <v>53</v>
       </c>
@@ -5688,8 +7866,11 @@
       <c r="D43" s="6" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="44" spans="2:4">
+      <c r="E43" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" s="6" t="s">
         <v>53</v>
       </c>
@@ -5699,8 +7880,11 @@
       <c r="D44" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
+      <c r="E44" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
       <c r="B45" s="6" t="s">
         <v>53</v>
       </c>
@@ -5710,8 +7894,11 @@
       <c r="D45" s="6" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="46" spans="2:4">
+      <c r="E45" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
       <c r="B46" s="6" t="s">
         <v>53</v>
       </c>
@@ -5721,8 +7908,11 @@
       <c r="D46" s="6" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="47" spans="2:4">
+      <c r="E46" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
       <c r="B47" s="6" t="s">
         <v>53</v>
       </c>
@@ -5732,8 +7922,11 @@
       <c r="D47" s="6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="48" spans="2:4">
+      <c r="E47" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
       <c r="B48" s="6" t="s">
         <v>53</v>
       </c>
@@ -5743,8 +7936,11 @@
       <c r="D48" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="49" spans="2:4">
+      <c r="E48" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
       <c r="B49" s="6" t="s">
         <v>98</v>
       </c>
@@ -5754,8 +7950,11 @@
       <c r="D49" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="50" spans="2:4">
+      <c r="E49" s="17" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50" s="6" t="s">
         <v>98</v>
       </c>
@@ -5765,8 +7964,11 @@
       <c r="D50" s="6" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="51" spans="2:4">
+      <c r="E50" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51" s="6" t="s">
         <v>98</v>
       </c>
@@ -5776,8 +7978,11 @@
       <c r="D51" s="6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="52" spans="2:4">
+      <c r="E51" s="17" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52" s="6" t="s">
         <v>98</v>
       </c>
@@ -5787,8 +7992,11 @@
       <c r="D52" s="6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="53" spans="2:4">
+      <c r="E52" s="17" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
       <c r="B53" s="6" t="s">
         <v>98</v>
       </c>
@@ -5798,8 +8006,11 @@
       <c r="D53" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="54" spans="2:4">
+      <c r="E53" s="17" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
       <c r="B54" s="6" t="s">
         <v>98</v>
       </c>
@@ -5809,8 +8020,11 @@
       <c r="D54" s="6" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="55" spans="2:4">
+      <c r="E54" s="17" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
       <c r="B55" s="6" t="s">
         <v>107</v>
       </c>
@@ -5820,8 +8034,11 @@
       <c r="D55" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="56" spans="2:4">
+      <c r="E55" s="17" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" s="6" t="s">
         <v>107</v>
       </c>
@@ -5831,8 +8048,11 @@
       <c r="D56" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="57" spans="2:4">
+      <c r="E56" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57" s="6" t="s">
         <v>111</v>
       </c>
@@ -5842,8 +8062,11 @@
       <c r="D57" s="6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="58" spans="2:4">
+      <c r="E57" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="6" t="s">
         <v>111</v>
       </c>
@@ -5853,8 +8076,11 @@
       <c r="D58" s="6" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="59" spans="2:4">
+      <c r="E58" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="6" t="s">
         <v>111</v>
       </c>
@@ -5864,8 +8090,11 @@
       <c r="D59" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="60" spans="2:4">
+      <c r="E59" s="17" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" s="6" t="s">
         <v>111</v>
       </c>
@@ -5874,6 +8103,9 @@
       </c>
       <c r="D60" s="6" t="s">
         <v>257</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -5883,20 +8115,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12777494-EA3E-46B9-A3EB-5D010688E1E6}">
-  <dimension ref="B2:D45"/>
+  <dimension ref="B2:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
@@ -5906,8 +8138,11 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -5917,8 +8152,11 @@
       <c r="D3" s="5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="18" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -5928,8 +8166,11 @@
       <c r="D4" s="5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="18" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -5939,8 +8180,11 @@
       <c r="D5" s="5" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="18" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -5950,8 +8194,11 @@
       <c r="D6" s="5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -5961,8 +8208,11 @@
       <c r="D7" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="17" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -5972,8 +8222,11 @@
       <c r="D8" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="17" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -5983,8 +8236,11 @@
       <c r="D9" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -5994,8 +8250,11 @@
       <c r="D10" s="5" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="17" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
@@ -6005,8 +8264,11 @@
       <c r="D11" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="17" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -6016,8 +8278,11 @@
       <c r="D12" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="17" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -6027,8 +8292,11 @@
       <c r="D13" s="5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="17" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
@@ -6038,8 +8306,11 @@
       <c r="D14" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="17" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
@@ -6049,8 +8320,11 @@
       <c r="D15" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="17" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
@@ -6060,8 +8334,11 @@
       <c r="D16" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="17" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
@@ -6071,8 +8348,11 @@
       <c r="D17" s="5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="17" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -6082,8 +8362,11 @@
       <c r="D18" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18" s="17" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
@@ -6093,8 +8376,11 @@
       <c r="D19" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19" s="17" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
@@ -6104,8 +8390,11 @@
       <c r="D20" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20" s="17" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
@@ -6115,8 +8404,11 @@
       <c r="D21" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="17" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -6126,8 +8418,11 @@
       <c r="D22" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22" s="17" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
@@ -6137,8 +8432,11 @@
       <c r="D23" s="5" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="17" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
@@ -6148,8 +8446,11 @@
       <c r="D24" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="17" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -6159,8 +8460,11 @@
       <c r="D25" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="17" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
@@ -6170,8 +8474,11 @@
       <c r="D26" s="5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
@@ -6181,8 +8488,11 @@
       <c r="D27" s="5" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="17" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
@@ -6192,8 +8502,11 @@
       <c r="D28" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28" s="17" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
@@ -6203,8 +8516,11 @@
       <c r="D29" s="5" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -6214,8 +8530,11 @@
       <c r="D30" s="5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30" s="17" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
@@ -6225,8 +8544,11 @@
       <c r="D31" s="5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="17" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
@@ -6236,8 +8558,11 @@
       <c r="D32" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32" s="17" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="5" t="s">
         <v>38</v>
       </c>
@@ -6247,8 +8572,11 @@
       <c r="D33" s="5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33" s="17" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
@@ -6258,8 +8586,11 @@
       <c r="D34" s="5" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34" s="17" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
@@ -6269,8 +8600,11 @@
       <c r="D35" s="5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35" s="17" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="5" t="s">
         <v>53</v>
       </c>
@@ -6280,8 +8614,11 @@
       <c r="D36" s="5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="5" t="s">
         <v>53</v>
       </c>
@@ -6291,8 +8628,11 @@
       <c r="D37" s="5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
+      <c r="E37" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="5" t="s">
         <v>53</v>
       </c>
@@ -6302,8 +8642,11 @@
       <c r="D38" s="5" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="E38" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
@@ -6313,8 +8656,11 @@
       <c r="D39" s="5" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
+      <c r="E39" s="17" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="5" t="s">
         <v>53</v>
       </c>
@@ -6324,8 +8670,11 @@
       <c r="D40" s="5" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
+      <c r="E40" s="17" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="5" t="s">
         <v>98</v>
       </c>
@@ -6335,8 +8684,11 @@
       <c r="D41" s="5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="42" spans="2:4">
+      <c r="E41" s="17" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" s="5" t="s">
         <v>98</v>
       </c>
@@ -6346,8 +8698,11 @@
       <c r="D42" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="43" spans="2:4">
+      <c r="E42" s="17" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" s="5" t="s">
         <v>98</v>
       </c>
@@ -6357,8 +8712,11 @@
       <c r="D43" s="5" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="44" spans="2:4">
+      <c r="E43" s="17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" s="5" t="s">
         <v>98</v>
       </c>
@@ -6368,8 +8726,11 @@
       <c r="D44" s="5" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
+      <c r="E44" s="17" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
       <c r="B45" s="5" t="s">
         <v>98</v>
       </c>
@@ -6378,6 +8739,9 @@
       </c>
       <c r="D45" s="5" t="s">
         <v>297</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -6387,18 +8751,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7C4C64-188D-466E-817E-5F0AEA419870}">
-  <dimension ref="B2:D77"/>
+  <dimension ref="B2:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D16"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="45.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
@@ -6408,8 +8773,11 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -6419,8 +8787,11 @@
       <c r="D3" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="18" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -6430,8 +8801,11 @@
       <c r="D4" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="18" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -6441,8 +8815,11 @@
       <c r="D5" s="5" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="18" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -6452,8 +8829,11 @@
       <c r="D6" s="5" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="17" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -6463,8 +8843,11 @@
       <c r="D7" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="17" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -6474,8 +8857,11 @@
       <c r="D8" s="5" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="17" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -6485,8 +8871,11 @@
       <c r="D9" s="5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="17" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -6496,8 +8885,11 @@
       <c r="D10" s="5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="17" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -6507,8 +8899,11 @@
       <c r="D11" s="5" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="17" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -6518,8 +8913,11 @@
       <c r="D12" s="5" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="17" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -6529,8 +8927,11 @@
       <c r="D13" s="5" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="17" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
@@ -6540,8 +8941,11 @@
       <c r="D14" s="5" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="17" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -6551,8 +8955,11 @@
       <c r="D15" s="6" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
@@ -6562,8 +8969,11 @@
       <c r="D16" s="6" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
@@ -6573,8 +8983,11 @@
       <c r="D17" s="5" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="17" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
@@ -6584,8 +8997,11 @@
       <c r="D18" s="5" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18" s="17" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -6595,8 +9011,11 @@
       <c r="D19" s="5" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
@@ -6606,8 +9025,11 @@
       <c r="D20" s="5" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20" s="17" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
@@ -6617,8 +9039,11 @@
       <c r="D21" s="5" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -6628,8 +9053,11 @@
       <c r="D22" s="5" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22" s="17" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
@@ -6639,8 +9067,11 @@
       <c r="D23" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
@@ -6650,8 +9081,11 @@
       <c r="D24" s="5" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="17" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -6661,8 +9095,11 @@
       <c r="D25" s="5" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="17" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
@@ -6672,8 +9109,11 @@
       <c r="D26" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="17" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
@@ -6683,8 +9123,11 @@
       <c r="D27" s="5" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="17" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
@@ -6694,8 +9137,11 @@
       <c r="D28" s="5" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28" s="17" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
@@ -6705,8 +9151,11 @@
       <c r="D29" s="5" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29" s="17" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -6716,8 +9165,11 @@
       <c r="D30" s="5" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30" s="17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
@@ -6727,8 +9179,11 @@
       <c r="D31" s="5" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
@@ -6738,8 +9193,11 @@
       <c r="D32" s="5" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32" s="17" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="5" t="s">
         <v>38</v>
       </c>
@@ -6749,8 +9207,11 @@
       <c r="D33" s="5" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33" s="17" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="5" t="s">
         <v>53</v>
       </c>
@@ -6760,8 +9221,11 @@
       <c r="D34" s="5" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34" s="17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="5" t="s">
         <v>53</v>
       </c>
@@ -6771,8 +9235,11 @@
       <c r="D35" s="5" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35" s="17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="5" t="s">
         <v>53</v>
       </c>
@@ -6782,8 +9249,11 @@
       <c r="D36" s="5" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36" s="17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="5" t="s">
         <v>53</v>
       </c>
@@ -6793,8 +9263,11 @@
       <c r="D37" s="5" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
+      <c r="E37" s="17" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="5" t="s">
         <v>53</v>
       </c>
@@ -6804,8 +9277,11 @@
       <c r="D38" s="5" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="E38" s="17" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
@@ -6815,8 +9291,11 @@
       <c r="D39" s="5" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
+      <c r="E39" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="5" t="s">
         <v>53</v>
       </c>
@@ -6826,8 +9305,11 @@
       <c r="D40" s="5" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
+      <c r="E40" s="17" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="5" t="s">
         <v>53</v>
       </c>
@@ -6837,8 +9319,11 @@
       <c r="D41" s="5" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="42" spans="2:4">
+      <c r="E41" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" s="5" t="s">
         <v>98</v>
       </c>
@@ -6848,8 +9333,11 @@
       <c r="D42" s="5" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="43" spans="2:4">
+      <c r="E42" s="17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" s="5" t="s">
         <v>98</v>
       </c>
@@ -6859,8 +9347,11 @@
       <c r="D43" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="44" spans="2:4">
+      <c r="E43" s="17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" s="5" t="s">
         <v>98</v>
       </c>
@@ -6870,8 +9361,11 @@
       <c r="D44" s="5" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
+      <c r="E44" s="17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
       <c r="B45" s="5" t="s">
         <v>98</v>
       </c>
@@ -6881,8 +9375,11 @@
       <c r="D45" s="5" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="46" spans="2:4">
+      <c r="E45" s="17" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
       <c r="B46" s="5" t="s">
         <v>107</v>
       </c>
@@ -6892,8 +9389,11 @@
       <c r="D46" s="5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="47" spans="2:4">
+      <c r="E46" s="17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
       <c r="B47" s="5" t="s">
         <v>107</v>
       </c>
@@ -6903,8 +9403,11 @@
       <c r="D47" s="5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="48" spans="2:4">
+      <c r="E47" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
       <c r="B48" s="5" t="s">
         <v>107</v>
       </c>
@@ -6914,8 +9417,11 @@
       <c r="D48" s="5" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="49" spans="2:4">
+      <c r="E48" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
       <c r="B49" s="5" t="s">
         <v>107</v>
       </c>
@@ -6925,8 +9431,11 @@
       <c r="D49" s="5" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="50" spans="2:4">
+      <c r="E49" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50" s="5" t="s">
         <v>107</v>
       </c>
@@ -6936,8 +9445,11 @@
       <c r="D50" s="5" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="51" spans="2:4">
+      <c r="E50" s="17" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51" s="5" t="s">
         <v>107</v>
       </c>
@@ -6947,8 +9459,11 @@
       <c r="D51" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="52" spans="2:4">
+      <c r="E51" s="17" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52" s="5" t="s">
         <v>107</v>
       </c>
@@ -6958,8 +9473,11 @@
       <c r="D52" s="5" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="53" spans="2:4">
+      <c r="E52" s="17" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
       <c r="B53" s="5" t="s">
         <v>107</v>
       </c>
@@ -6969,8 +9487,11 @@
       <c r="D53" s="5" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="54" spans="2:4">
+      <c r="E53" s="17" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
       <c r="B54" s="5" t="s">
         <v>107</v>
       </c>
@@ -6980,8 +9501,11 @@
       <c r="D54" s="5" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="55" spans="2:4">
+      <c r="E54" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
       <c r="B55" s="5" t="s">
         <v>107</v>
       </c>
@@ -6991,8 +9515,11 @@
       <c r="D55" s="5" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="56" spans="2:4">
+      <c r="E55" s="17" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" s="5" t="s">
         <v>111</v>
       </c>
@@ -7002,8 +9529,11 @@
       <c r="D56" s="5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="57" spans="2:4">
+      <c r="E56" s="17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57" s="5" t="s">
         <v>111</v>
       </c>
@@ -7013,8 +9543,11 @@
       <c r="D57" s="5" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="58" spans="2:4">
+      <c r="E57" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="5" t="s">
         <v>111</v>
       </c>
@@ -7024,8 +9557,11 @@
       <c r="D58" s="5" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="59" spans="2:4">
+      <c r="E58" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="5" t="s">
         <v>111</v>
       </c>
@@ -7035,8 +9571,11 @@
       <c r="D59" s="5" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="60" spans="2:4">
+      <c r="E59" s="17" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" s="5" t="s">
         <v>111</v>
       </c>
@@ -7046,8 +9585,11 @@
       <c r="D60" s="5" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="61" spans="2:4">
+      <c r="E60" s="17" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
       <c r="B61" s="5" t="s">
         <v>111</v>
       </c>
@@ -7057,8 +9599,11 @@
       <c r="D61" s="5" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="62" spans="2:4">
+      <c r="E61" s="17" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
       <c r="B62" s="5" t="s">
         <v>111</v>
       </c>
@@ -7068,8 +9613,11 @@
       <c r="D62" s="5" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="63" spans="2:4">
+      <c r="E62" s="17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
       <c r="B63" s="5" t="s">
         <v>111</v>
       </c>
@@ -7079,8 +9627,11 @@
       <c r="D63" s="5" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="64" spans="2:4">
+      <c r="E63" s="17" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
       <c r="B64" s="5" t="s">
         <v>111</v>
       </c>
@@ -7090,8 +9641,11 @@
       <c r="D64" s="5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="65" spans="2:4">
+      <c r="E64" s="17" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65" s="5" t="s">
         <v>111</v>
       </c>
@@ -7101,8 +9655,11 @@
       <c r="D65" s="5" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="66" spans="2:4">
+      <c r="E65" s="17" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" s="5" t="s">
         <v>114</v>
       </c>
@@ -7112,8 +9669,11 @@
       <c r="D66" s="5" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="67" spans="2:4">
+      <c r="E66" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
       <c r="B67" s="5" t="s">
         <v>114</v>
       </c>
@@ -7123,8 +9683,11 @@
       <c r="D67" s="5" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="68" spans="2:4">
+      <c r="E67" s="17" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
       <c r="B68" s="5" t="s">
         <v>114</v>
       </c>
@@ -7134,8 +9697,11 @@
       <c r="D68" s="5" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="69" spans="2:4">
+      <c r="E68" s="17" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
       <c r="B69" s="5" t="s">
         <v>114</v>
       </c>
@@ -7145,8 +9711,11 @@
       <c r="D69" s="5" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="70" spans="2:4">
+      <c r="E69" s="17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
       <c r="B70" s="5" t="s">
         <v>114</v>
       </c>
@@ -7156,8 +9725,11 @@
       <c r="D70" s="5" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="71" spans="2:4">
+      <c r="E70" s="17" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
       <c r="B71" s="5" t="s">
         <v>114</v>
       </c>
@@ -7167,8 +9739,11 @@
       <c r="D71" s="5" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="72" spans="2:4">
+      <c r="E71" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
       <c r="B72" s="5" t="s">
         <v>114</v>
       </c>
@@ -7178,8 +9753,11 @@
       <c r="D72" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="73" spans="2:4">
+      <c r="E72" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
       <c r="B73" s="5" t="s">
         <v>191</v>
       </c>
@@ -7189,8 +9767,11 @@
       <c r="D73" s="5" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="74" spans="2:4">
+      <c r="E73" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
       <c r="B74" s="5" t="s">
         <v>191</v>
       </c>
@@ -7200,8 +9781,11 @@
       <c r="D74" s="5" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="75" spans="2:4">
+      <c r="E74" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
       <c r="B75" s="5" t="s">
         <v>191</v>
       </c>
@@ -7211,8 +9795,11 @@
       <c r="D75" s="5" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="76" spans="2:4">
+      <c r="E75" s="17" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
       <c r="B76" s="5" t="s">
         <v>191</v>
       </c>
@@ -7222,8 +9809,11 @@
       <c r="D76" s="4" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="77" spans="2:4">
+      <c r="E76" s="17" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
       <c r="B77" s="5" t="s">
         <v>191</v>
       </c>
@@ -7232,6 +9822,9 @@
       </c>
       <c r="D77" s="4" t="s">
         <v>364</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -7241,19 +9834,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFF8A72-2FDC-4257-851F-AB40BDBF75D7}">
-  <dimension ref="B2:D68"/>
+  <dimension ref="B2:E68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
@@ -7263,8 +9857,11 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -7274,8 +9871,11 @@
       <c r="D3" s="5" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="18" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -7285,8 +9885,11 @@
       <c r="D4" s="5" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="18" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -7296,8 +9899,11 @@
       <c r="D5" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="18" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -7307,8 +9913,11 @@
       <c r="D6" s="5" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="17" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -7318,8 +9927,11 @@
       <c r="D7" s="5" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="17" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -7329,8 +9941,11 @@
       <c r="D8" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="17" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -7340,8 +9955,11 @@
       <c r="D9" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="17" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -7351,8 +9969,11 @@
       <c r="D10" s="5" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="17" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
@@ -7362,8 +9983,11 @@
       <c r="D11" s="5" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="17" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -7373,8 +9997,11 @@
       <c r="D12" s="5" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
@@ -7384,8 +10011,11 @@
       <c r="D13" s="5" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="17" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
@@ -7395,8 +10025,11 @@
       <c r="D14" s="5" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
@@ -7406,8 +10039,11 @@
       <c r="D15" s="5" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
@@ -7417,8 +10053,11 @@
       <c r="D16" s="5" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="17" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
@@ -7428,8 +10067,11 @@
       <c r="D17" s="5" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="17" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
@@ -7439,8 +10081,11 @@
       <c r="D18" s="5" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18" s="17" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
@@ -7450,8 +10095,11 @@
       <c r="D19" s="5" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
@@ -7461,8 +10109,11 @@
       <c r="D20" s="5" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20" s="17" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
@@ -7472,8 +10123,11 @@
       <c r="D21" s="5" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="17" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -7483,8 +10137,11 @@
       <c r="D22" s="5" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22" s="17" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
@@ -7494,8 +10151,11 @@
       <c r="D23" s="5" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="17" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
@@ -7505,8 +10165,11 @@
       <c r="D24" s="5" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="17" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
@@ -7516,8 +10179,11 @@
       <c r="D25" s="5" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="17" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
@@ -7527,8 +10193,11 @@
       <c r="D26" s="5" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="17" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
@@ -7538,8 +10207,11 @@
       <c r="D27" s="5" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
@@ -7549,8 +10221,11 @@
       <c r="D28" s="5" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28" s="17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
@@ -7560,8 +10235,11 @@
       <c r="D29" s="5" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29" s="17" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -7571,8 +10249,11 @@
       <c r="D30" s="5" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30" s="17" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
@@ -7582,8 +10263,11 @@
       <c r="D31" s="5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="17" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
@@ -7593,8 +10277,11 @@
       <c r="D32" s="5" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32" s="17" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="5" t="s">
         <v>38</v>
       </c>
@@ -7604,8 +10291,11 @@
       <c r="D33" s="5" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33" s="17" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
@@ -7615,8 +10305,11 @@
       <c r="D34" s="5" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34" s="17" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
@@ -7626,8 +10319,11 @@
       <c r="D35" s="5" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35" s="17" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="5" t="s">
         <v>38</v>
       </c>
@@ -7637,8 +10333,11 @@
       <c r="D36" s="5" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36" s="17" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="5" t="s">
         <v>38</v>
       </c>
@@ -7648,8 +10347,11 @@
       <c r="D37" s="5" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
+      <c r="E37" s="17" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="5" t="s">
         <v>53</v>
       </c>
@@ -7659,8 +10361,11 @@
       <c r="D38" s="5" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="E38" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
@@ -7670,8 +10375,11 @@
       <c r="D39" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
+      <c r="E39" s="17" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="5" t="s">
         <v>98</v>
       </c>
@@ -7681,8 +10389,11 @@
       <c r="D40" s="5" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
+      <c r="E40" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="5" t="s">
         <v>98</v>
       </c>
@@ -7692,8 +10403,11 @@
       <c r="D41" s="5" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="42" spans="2:4">
+      <c r="E41" s="17" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" s="5" t="s">
         <v>98</v>
       </c>
@@ -7703,8 +10417,11 @@
       <c r="D42" s="5" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="43" spans="2:4">
+      <c r="E42" s="17" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" s="5" t="s">
         <v>98</v>
       </c>
@@ -7714,8 +10431,11 @@
       <c r="D43" s="5" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="44" spans="2:4">
+      <c r="E43" s="17" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" s="5" t="s">
         <v>98</v>
       </c>
@@ -7725,8 +10445,11 @@
       <c r="D44" s="5" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
+      <c r="E44" s="17" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
       <c r="B45" s="5" t="s">
         <v>98</v>
       </c>
@@ -7736,8 +10459,11 @@
       <c r="D45" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="46" spans="2:4">
+      <c r="E45" s="17" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
       <c r="B46" s="5" t="s">
         <v>98</v>
       </c>
@@ -7747,8 +10473,11 @@
       <c r="D46" s="5" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="47" spans="2:4">
+      <c r="E46" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
       <c r="B47" s="5" t="s">
         <v>98</v>
       </c>
@@ -7758,8 +10487,11 @@
       <c r="D47" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="48" spans="2:4">
+      <c r="E47" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
       <c r="B48" s="5" t="s">
         <v>107</v>
       </c>
@@ -7769,8 +10501,11 @@
       <c r="D48" s="5" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="49" spans="2:4">
+      <c r="E48" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
       <c r="B49" s="5" t="s">
         <v>107</v>
       </c>
@@ -7780,8 +10515,11 @@
       <c r="D49" s="5" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="50" spans="2:4">
+      <c r="E49" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
       <c r="B50" s="5" t="s">
         <v>107</v>
       </c>
@@ -7791,8 +10529,11 @@
       <c r="D50" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="51" spans="2:4">
+      <c r="E50" s="17" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
       <c r="B51" s="5" t="s">
         <v>107</v>
       </c>
@@ -7802,8 +10543,11 @@
       <c r="D51" s="5" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="52" spans="2:4">
+      <c r="E51" s="17" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
       <c r="B52" s="5" t="s">
         <v>107</v>
       </c>
@@ -7813,8 +10557,11 @@
       <c r="D52" s="5" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="53" spans="2:4">
+      <c r="E52" s="17" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
       <c r="B53" s="5" t="s">
         <v>107</v>
       </c>
@@ -7824,8 +10571,11 @@
       <c r="D53" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="54" spans="2:4">
+      <c r="E53" s="17" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
       <c r="B54" s="5" t="s">
         <v>107</v>
       </c>
@@ -7835,8 +10585,11 @@
       <c r="D54" s="5" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="55" spans="2:4">
+      <c r="E54" s="17" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
       <c r="B55" s="5" t="s">
         <v>107</v>
       </c>
@@ -7846,8 +10599,11 @@
       <c r="D55" s="5" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="56" spans="2:4">
+      <c r="E55" s="17" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" s="5" t="s">
         <v>107</v>
       </c>
@@ -7857,8 +10613,11 @@
       <c r="D56" s="5" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="57" spans="2:4">
+      <c r="E56" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
       <c r="B57" s="5" t="s">
         <v>107</v>
       </c>
@@ -7868,8 +10627,11 @@
       <c r="D57" s="5" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="58" spans="2:4">
+      <c r="E57" s="17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
       <c r="B58" s="5" t="s">
         <v>111</v>
       </c>
@@ -7879,8 +10641,11 @@
       <c r="D58" s="5" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="59" spans="2:4">
+      <c r="E58" s="17" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
       <c r="B59" s="5" t="s">
         <v>111</v>
       </c>
@@ -7890,8 +10655,11 @@
       <c r="D59" s="5" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="60" spans="2:4">
+      <c r="E59" s="17" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
       <c r="B60" s="5" t="s">
         <v>111</v>
       </c>
@@ -7901,8 +10669,11 @@
       <c r="D60" s="5" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="61" spans="2:4">
+      <c r="E60" s="17" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
       <c r="B61" s="5" t="s">
         <v>111</v>
       </c>
@@ -7912,8 +10683,11 @@
       <c r="D61" s="5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="62" spans="2:4">
+      <c r="E61" s="17" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
       <c r="B62" s="5" t="s">
         <v>111</v>
       </c>
@@ -7923,8 +10697,11 @@
       <c r="D62" s="5" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="63" spans="2:4">
+      <c r="E62" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
       <c r="B63" s="5" t="s">
         <v>111</v>
       </c>
@@ -7934,8 +10711,11 @@
       <c r="D63" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="64" spans="2:4">
+      <c r="E63" s="17" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
       <c r="B64" s="5" t="s">
         <v>111</v>
       </c>
@@ -7945,8 +10725,11 @@
       <c r="D64" s="5" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="65" spans="2:4">
+      <c r="E64" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
       <c r="B65" s="5" t="s">
         <v>114</v>
       </c>
@@ -7956,8 +10739,11 @@
       <c r="D65" s="5" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="66" spans="2:4">
+      <c r="E65" s="17" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
       <c r="B66" s="5" t="s">
         <v>114</v>
       </c>
@@ -7967,8 +10753,11 @@
       <c r="D66" s="5" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="67" spans="2:4">
+      <c r="E66" s="17" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
       <c r="B67" s="5" t="s">
         <v>114</v>
       </c>
@@ -7978,8 +10767,11 @@
       <c r="D67" s="5" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="68" spans="2:4">
+      <c r="E67" s="17" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
       <c r="B68" s="5" t="s">
         <v>114</v>
       </c>
@@ -7988,6 +10780,9 @@
       </c>
       <c r="D68" s="5" t="s">
         <v>427</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -7997,19 +10792,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D799BA18-8F82-4A65-84A4-0EF6CB2BBE81}">
-  <dimension ref="B2:D42"/>
+  <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45:I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
@@ -8019,8 +10815,11 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -8030,8 +10829,11 @@
       <c r="D3" s="5" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="18" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -8041,8 +10843,11 @@
       <c r="D4" s="5" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="18" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
@@ -8052,8 +10857,11 @@
       <c r="D5" s="5" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="17" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -8063,8 +10871,11 @@
       <c r="D6" s="5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="17" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
@@ -8074,8 +10885,11 @@
       <c r="D7" s="5" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="17" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
@@ -8085,8 +10899,11 @@
       <c r="D8" s="5" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="17" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -8096,8 +10913,11 @@
       <c r="D9" s="5" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="17" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -8107,8 +10927,11 @@
       <c r="D10" s="5" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="17" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
@@ -8118,8 +10941,11 @@
       <c r="D11" s="5" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="17" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
@@ -8129,8 +10955,11 @@
       <c r="D12" s="5" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="17" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
@@ -8140,8 +10969,11 @@
       <c r="D13" s="5" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="17" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
@@ -8151,8 +10983,11 @@
       <c r="D14" s="5" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="17" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
@@ -8162,8 +10997,11 @@
       <c r="D15" s="5" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="17" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
@@ -8173,8 +11011,11 @@
       <c r="D16" s="5" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="17" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
@@ -8184,8 +11025,11 @@
       <c r="D17" s="5" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="17" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="5" t="s">
         <v>33</v>
       </c>
@@ -8195,8 +11039,11 @@
       <c r="D18" s="5" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18" s="17" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
@@ -8206,8 +11053,11 @@
       <c r="D19" s="5" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19" s="17" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
@@ -8217,8 +11067,11 @@
       <c r="D20" s="5" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20" s="17" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -8228,8 +11081,11 @@
       <c r="D21" s="5" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="17" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="5" t="s">
         <v>38</v>
       </c>
@@ -8239,8 +11095,11 @@
       <c r="D22" s="5" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22" s="17" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="5" t="s">
         <v>38</v>
       </c>
@@ -8250,8 +11109,11 @@
       <c r="D23" s="5" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="17" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="5" t="s">
         <v>38</v>
       </c>
@@ -8261,8 +11123,11 @@
       <c r="D24" s="5" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="17" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
@@ -8272,8 +11137,11 @@
       <c r="D25" s="5" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="17" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
@@ -8283,8 +11151,11 @@
       <c r="D26" s="5" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="17" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="5" t="s">
         <v>53</v>
       </c>
@@ -8294,8 +11165,11 @@
       <c r="D27" s="5" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="17" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="5" t="s">
         <v>53</v>
       </c>
@@ -8305,8 +11179,11 @@
       <c r="D28" s="5" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28" s="17" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="5" t="s">
         <v>53</v>
       </c>
@@ -8316,8 +11193,11 @@
       <c r="D29" s="5" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29" s="17" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="5" t="s">
         <v>53</v>
       </c>
@@ -8327,8 +11207,11 @@
       <c r="D30" s="5" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30" s="17" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="5" t="s">
         <v>53</v>
       </c>
@@ -8338,8 +11221,11 @@
       <c r="D31" s="5" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="17" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="5" t="s">
         <v>53</v>
       </c>
@@ -8349,8 +11235,11 @@
       <c r="D32" s="5" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32" s="17" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="5" t="s">
         <v>53</v>
       </c>
@@ -8360,8 +11249,11 @@
       <c r="D33" s="5" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33" s="17" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
       <c r="B34" s="5" t="s">
         <v>53</v>
       </c>
@@ -8371,8 +11263,11 @@
       <c r="D34" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34" s="17" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" s="5" t="s">
         <v>53</v>
       </c>
@@ -8382,8 +11277,11 @@
       <c r="D35" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35" s="17" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" s="5" t="s">
         <v>53</v>
       </c>
@@ -8393,8 +11291,11 @@
       <c r="D36" s="5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36" s="17" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" s="5" t="s">
         <v>98</v>
       </c>
@@ -8404,8 +11305,11 @@
       <c r="D37" s="5" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="38" spans="2:4">
+      <c r="E37" s="17" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="5" t="s">
         <v>98</v>
       </c>
@@ -8415,8 +11319,11 @@
       <c r="D38" s="5" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="E38" s="17" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="5" t="s">
         <v>98</v>
       </c>
@@ -8426,8 +11333,11 @@
       <c r="D39" s="5" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
+      <c r="E39" s="17" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="5" t="s">
         <v>98</v>
       </c>
@@ -8437,8 +11347,11 @@
       <c r="D40" s="5" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="41" spans="2:4">
+      <c r="E40" s="17" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="5" t="s">
         <v>98</v>
       </c>
@@ -8448,8 +11361,11 @@
       <c r="D41" s="4" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="42" spans="2:4">
+      <c r="E41" s="17" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" s="5" t="s">
         <v>98</v>
       </c>
@@ -8458,6 +11374,9 @@
       </c>
       <c r="D42" s="4" t="s">
         <v>457</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>889</v>
       </c>
     </row>
   </sheetData>
@@ -8467,19 +11386,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AE07E1-59F6-46A7-80B9-40A061385ED3}">
-  <dimension ref="B2:D33"/>
+  <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
@@ -8489,8 +11410,11 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
+      <c r="E2" s="12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -8500,8 +11424,11 @@
       <c r="D3" s="4" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="E3" s="13" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -8511,8 +11438,11 @@
       <c r="D4" s="4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
+      <c r="E4" s="13" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -8522,8 +11452,11 @@
       <c r="D5" s="4" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="6" spans="2:4">
+      <c r="E5" s="13" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -8533,8 +11466,11 @@
       <c r="D6" s="4" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
+      <c r="E6" s="14" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -8544,8 +11480,11 @@
       <c r="D7" s="4" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="8" spans="2:4">
+      <c r="E7" s="14" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
@@ -8555,8 +11494,11 @@
       <c r="D8" s="4" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="9" spans="2:4">
+      <c r="E8" s="14" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
@@ -8566,8 +11508,11 @@
       <c r="D9" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="10" spans="2:4">
+      <c r="E9" s="14" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -8577,8 +11522,11 @@
       <c r="D10" s="4" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="11" spans="2:4">
+      <c r="E10" s="14" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
@@ -8588,8 +11536,11 @@
       <c r="D11" s="4" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="12" spans="2:4">
+      <c r="E11" s="14" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
@@ -8599,8 +11550,11 @@
       <c r="D12" s="4" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="13" spans="2:4">
+      <c r="E12" s="14" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -8610,8 +11564,11 @@
       <c r="D13" s="4" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="14" spans="2:4">
+      <c r="E13" s="14" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -8621,8 +11578,11 @@
       <c r="D14" s="4" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="15" spans="2:4">
+      <c r="E14" s="14" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
@@ -8632,8 +11592,11 @@
       <c r="D15" s="4" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="16" spans="2:4">
+      <c r="E15" s="14" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
@@ -8643,8 +11606,11 @@
       <c r="D16" s="4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="14" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
@@ -8654,8 +11620,11 @@
       <c r="D17" s="4" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="14" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
@@ -8665,8 +11634,11 @@
       <c r="D18" s="4" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18" s="14" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
@@ -8676,8 +11648,11 @@
       <c r="D19" s="4" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19" s="14" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="4" t="s">
         <v>26</v>
       </c>
@@ -8687,8 +11662,11 @@
       <c r="D20" s="4" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="4" t="s">
         <v>26</v>
       </c>
@@ -8698,8 +11676,11 @@
       <c r="D21" s="4" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
@@ -8709,8 +11690,11 @@
       <c r="D22" s="4" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="23" spans="2:4">
+      <c r="E22" s="14" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="4" t="s">
         <v>33</v>
       </c>
@@ -8720,8 +11704,11 @@
       <c r="D23" s="4" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="14" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
@@ -8731,8 +11718,11 @@
       <c r="D24" s="4" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="14" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
@@ -8742,8 +11732,11 @@
       <c r="D25" s="4" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="14" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
@@ -8753,8 +11746,11 @@
       <c r="D26" s="4" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
@@ -8764,8 +11760,11 @@
       <c r="D27" s="4" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
@@ -8775,8 +11774,11 @@
       <c r="D28" s="4" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28" s="14" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
@@ -8786,8 +11788,11 @@
       <c r="D29" s="4" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29" s="14" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
@@ -8797,8 +11802,11 @@
       <c r="D30" s="4" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30" s="14" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
@@ -8808,8 +11816,11 @@
       <c r="D31" s="4" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="14" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
@@ -8819,8 +11830,11 @@
       <c r="D32" s="4" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32" s="14" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
@@ -8829,6 +11843,9 @@
       </c>
       <c r="D33" s="4" t="s">
         <v>488</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>916</v>
       </c>
     </row>
   </sheetData>

--- a/public/data utilisasi.xlsx
+++ b/public/data utilisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\myapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68913146-0030-4A77-BD98-50A80967631F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72730845-52BF-4095-8AE9-CFEF4B52D6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
   </bookViews>
   <sheets>
     <sheet name="sumbagut" sheetId="1" r:id="rId1"/>
@@ -3471,15 +3471,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086B36CC-6BF7-4A6F-A4D4-40503F5C0013}">
   <dimension ref="A2:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E60" sqref="C2:E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4493,7 +4493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917118A0-60AE-46CB-8B43-93934C46C9DE}">
   <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>

--- a/public/data utilisasi.xlsx
+++ b/public/data utilisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\myapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72730845-52BF-4095-8AE9-CFEF4B52D6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA6AB33-EF84-489E-8A3B-47642023163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
   </bookViews>
   <sheets>
     <sheet name="sumbagut" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="kal" sheetId="9" r:id="rId9"/>
     <sheet name="ibt" sheetId="10" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sumbagteng!$B$2:$E$68</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="536">
   <si>
     <t>Ring</t>
   </si>
@@ -1710,1255 +1713,25 @@
     <t>SBU-PORSEA-NE8000.M14-UPE-02</t>
   </si>
   <si>
-    <t>Kota</t>
-  </si>
-  <si>
-    <t>Aceh</t>
-  </si>
-  <si>
-    <t>Brandan</t>
-  </si>
-  <si>
-    <t>Stabat</t>
-  </si>
-  <si>
-    <t>Tele</t>
-  </si>
-  <si>
-    <t>Belawan</t>
-  </si>
-  <si>
-    <t>Sigli</t>
-  </si>
-  <si>
-    <t>Bireun</t>
-  </si>
-  <si>
-    <t>Lhokseumawe</t>
-  </si>
-  <si>
-    <t>Idie</t>
-  </si>
-  <si>
-    <t>Langsa</t>
-  </si>
-  <si>
-    <t>Binjai</t>
-  </si>
-  <si>
-    <t>Payageli</t>
-  </si>
-  <si>
-    <t>Glugur</t>
-  </si>
-  <si>
-    <t>Titikuning</t>
-  </si>
-  <si>
-    <t>Brastagi</t>
-  </si>
-  <si>
-    <t>Sidikalang</t>
-  </si>
-  <si>
-    <t>Tarutung</t>
-  </si>
-  <si>
-    <t>Sibolga</t>
-  </si>
-  <si>
-    <t>Porsea</t>
-  </si>
-  <si>
-    <t>Siantar</t>
-  </si>
-  <si>
-    <t>Seirotan</t>
-  </si>
-  <si>
-    <t>Tebingtinggi</t>
-  </si>
-  <si>
-    <t>Kisaran</t>
-  </si>
-  <si>
-    <t>Kualatanjung</t>
-  </si>
-  <si>
-    <t>Kanopan</t>
-  </si>
-  <si>
-    <t>Medan</t>
-  </si>
-  <si>
-    <t>Tapaktuan</t>
-  </si>
-  <si>
-    <t>Bakongan</t>
-  </si>
-  <si>
-    <t>Subulusalam</t>
-  </si>
-  <si>
-    <t>Tamora</t>
-  </si>
-  <si>
-    <t>Pakam</t>
-  </si>
-  <si>
-    <t>Perbaungan</t>
-  </si>
-  <si>
-    <t>Medan Timur</t>
-  </si>
-  <si>
-    <t>Ajuen</t>
-  </si>
-  <si>
-    <t>Lamno</t>
-  </si>
-  <si>
-    <t>Calang</t>
-  </si>
-  <si>
-    <t>Teunom</t>
-  </si>
-  <si>
-    <t>Meulobah</t>
-  </si>
-  <si>
-    <t>Nagan Raya</t>
-  </si>
-  <si>
-    <t>Blang Pidie</t>
-  </si>
-  <si>
-    <t>Labuhan Haji</t>
-  </si>
-  <si>
-    <t>Jaga Geumpang</t>
-  </si>
-  <si>
-    <t>Garudasakti</t>
-  </si>
-  <si>
-    <t>Telukkuantan</t>
-  </si>
-  <si>
-    <t>Duri</t>
-  </si>
-  <si>
-    <t>Dumai</t>
-  </si>
-  <si>
-    <t>Grahapena</t>
-  </si>
-  <si>
-    <t>Tanjunguban</t>
-  </si>
-  <si>
-    <t>Sribintan</t>
-  </si>
-  <si>
-    <t>Tanjungpinang</t>
-  </si>
-  <si>
-    <t>Bangkinang</t>
-  </si>
-  <si>
-    <t>Kotopanjang</t>
-  </si>
-  <si>
-    <t>Payakumbuh</t>
-  </si>
-  <si>
-    <t>Panam</t>
-  </si>
-  <si>
-    <t>Pekanbaru</t>
-  </si>
-  <si>
-    <t>Simpangtiga</t>
-  </si>
-  <si>
-    <t>Tenayan</t>
-  </si>
-  <si>
-    <t>Kerinci</t>
-  </si>
-  <si>
-    <t>Rengat</t>
-  </si>
-  <si>
-    <t>Riau</t>
-  </si>
-  <si>
-    <t>Pungut</t>
-  </si>
-  <si>
-    <t>Sukaberenang</t>
-  </si>
-  <si>
-    <t>Airraja</t>
-  </si>
-  <si>
-    <t>Sikaping</t>
-  </si>
-  <si>
-    <t>Pasaman</t>
-  </si>
-  <si>
-    <t>Maninjau</t>
-  </si>
-  <si>
-    <t>Alung</t>
-  </si>
-  <si>
-    <t>Pip</t>
-  </si>
-  <si>
-    <t>Rayonkotabarat</t>
-  </si>
-  <si>
-    <t>Odc.Wrkr</t>
-  </si>
-  <si>
-    <t>Kemilau.Sawit</t>
-  </si>
-  <si>
-    <t>Arengka</t>
-  </si>
-  <si>
-    <t>Pauhlimo</t>
-  </si>
-  <si>
-    <t>Solok</t>
-  </si>
-  <si>
-    <t>Salak</t>
-  </si>
-  <si>
-    <t>Ombilin</t>
-  </si>
-  <si>
-    <t>Kiliranjao</t>
-  </si>
-  <si>
-    <t>Sitiung</t>
-  </si>
-  <si>
-    <t>Rumbai</t>
-  </si>
-  <si>
-    <t>Padang</t>
-  </si>
-  <si>
-    <t>Belanti</t>
-  </si>
-  <si>
-    <t>Kuranji</t>
-  </si>
-  <si>
-    <t>Indarung</t>
-  </si>
-  <si>
-    <t>Bungus</t>
-  </si>
-  <si>
-    <t>Pasir Putih</t>
-  </si>
-  <si>
-    <t>Baloi</t>
-  </si>
-  <si>
-    <t>Kijang</t>
-  </si>
-  <si>
-    <t>Ranting Kijang</t>
-  </si>
-  <si>
-    <t>Padang Luar</t>
-  </si>
-  <si>
-    <t>Simpang Empat</t>
-  </si>
-  <si>
-    <t>Rayonpanam</t>
-  </si>
-  <si>
-    <t>Cyber</t>
-  </si>
-  <si>
-    <t>Shelter</t>
-  </si>
-  <si>
-    <t>Bukit</t>
-  </si>
-  <si>
-    <t>Tarahan</t>
-  </si>
-  <si>
-    <t>Kalianda</t>
-  </si>
-  <si>
-    <t>Pagelaran</t>
-  </si>
-  <si>
-    <t>Natar</t>
-  </si>
-  <si>
-    <t>Tegineneng</t>
-  </si>
-  <si>
-    <t>Kotabumi</t>
-  </si>
-  <si>
-    <t>Baturaja</t>
-  </si>
-  <si>
-    <t>Prabumulih</t>
-  </si>
-  <si>
-    <t>Sutami</t>
-  </si>
-  <si>
-    <t>Sribawono</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Lubuk</t>
-  </si>
-  <si>
-    <t>Rayon</t>
-  </si>
-  <si>
-    <t>Sukamerindu</t>
-  </si>
-  <si>
-    <t>Pekalongan</t>
-  </si>
-  <si>
-    <t>Sarolangun</t>
-  </si>
-  <si>
-    <t>Bangko</t>
-  </si>
-  <si>
-    <t>Aurduri</t>
-  </si>
-  <si>
-    <t>Payoselincah</t>
-  </si>
-  <si>
-    <t>Kramasan</t>
-  </si>
-  <si>
-    <t>Borang</t>
-  </si>
-  <si>
-    <t>Seduduk</t>
-  </si>
-  <si>
-    <t>Pikitring</t>
-  </si>
-  <si>
-    <t>Bukitsiguntang</t>
-  </si>
-  <si>
-    <t>Koba</t>
-  </si>
-  <si>
-    <t>Adijaya</t>
-  </si>
-  <si>
-    <t>Menggala</t>
-  </si>
-  <si>
-    <t>Gumawang</t>
-  </si>
-  <si>
-    <t>Tugu Mulyo</t>
-  </si>
-  <si>
-    <t>Kayu Agung</t>
-  </si>
-  <si>
-    <t>Simpang Tiga</t>
-  </si>
-  <si>
-    <t>Sukarame</t>
-  </si>
-  <si>
-    <t>Ketapang</t>
-  </si>
-  <si>
-    <t>Pringsewu</t>
-  </si>
-  <si>
-    <t>Lampung</t>
-  </si>
-  <si>
-    <t>Lubuk Linggau</t>
-  </si>
-  <si>
-    <t>Lahat</t>
-  </si>
-  <si>
-    <t>Pagar Alam</t>
-  </si>
-  <si>
-    <t>Ranting Tais</t>
-  </si>
-  <si>
-    <t>Nusaindah</t>
-  </si>
-  <si>
-    <t>Muara Bungo</t>
-  </si>
-  <si>
-    <t>Mersam</t>
-  </si>
-  <si>
-    <t>Muara Bulian</t>
-  </si>
-  <si>
-    <t>Jambi</t>
-  </si>
-  <si>
-    <t>Kota baru</t>
-  </si>
-  <si>
-    <t>Muara Sabak</t>
-  </si>
-  <si>
-    <t>Sungai Lilin</t>
-  </si>
-  <si>
-    <t>Betung</t>
-  </si>
-  <si>
-    <t>Talang Kelapa</t>
-  </si>
-  <si>
-    <t>Boombaru</t>
-  </si>
-  <si>
-    <t>Palembang</t>
-  </si>
-  <si>
-    <t>Ws2jb</t>
-  </si>
-  <si>
-    <t>Kenten</t>
-  </si>
-  <si>
-    <t>Tanjung</t>
-  </si>
-  <si>
-    <t>Ranting Muntok</t>
-  </si>
-  <si>
-    <t>Ranting Kelapa</t>
-  </si>
-  <si>
-    <t>Sungai Liat</t>
-  </si>
-  <si>
-    <t>Bangka</t>
-  </si>
-  <si>
-    <t>Kampak</t>
-  </si>
-  <si>
-    <t>Kelapa</t>
-  </si>
-  <si>
-    <t>Bintaro</t>
-  </si>
-  <si>
-    <t>Cikokol</t>
-  </si>
-  <si>
-    <t>Citrahabitat</t>
-  </si>
-  <si>
-    <t>Rangkas</t>
-  </si>
-  <si>
-    <t>Bunar</t>
-  </si>
-  <si>
-    <t>Baru</t>
-  </si>
-  <si>
-    <t>Sentul</t>
-  </si>
-  <si>
-    <t>Technovilage</t>
-  </si>
-  <si>
-    <t>Setiabudi</t>
-  </si>
-  <si>
-    <t>Cyber2</t>
-  </si>
-  <si>
-    <t>Rasuna</t>
-  </si>
-  <si>
-    <t>Cibinong</t>
-  </si>
-  <si>
-    <t>Gandaria</t>
-  </si>
-  <si>
-    <t>Pulogadung</t>
-  </si>
-  <si>
-    <t>Angke</t>
-  </si>
-  <si>
-    <t>Kemayoran</t>
-  </si>
-  <si>
-    <t>Petukangan</t>
-  </si>
-  <si>
-    <t>Kosambi</t>
-  </si>
-  <si>
-    <t>Balaraja</t>
-  </si>
-  <si>
-    <t>Cikande</t>
-  </si>
-  <si>
-    <t>Serang</t>
-  </si>
-  <si>
-    <t>Sunter</t>
-  </si>
-  <si>
-    <t>Duri Kosambi</t>
-  </si>
-  <si>
-    <t>Center Serpong</t>
-  </si>
-  <si>
-    <t>Kebon Jeruk</t>
-  </si>
-  <si>
-    <t>Apd Gambir</t>
-  </si>
-  <si>
-    <t>Bogor Timur</t>
-  </si>
-  <si>
-    <t>Kd Badak</t>
-  </si>
-  <si>
-    <t>Bojong Gede</t>
-  </si>
-  <si>
-    <t>Cimanggis</t>
-  </si>
-  <si>
-    <t>Depok</t>
-  </si>
-  <si>
-    <t>Cileungsi</t>
-  </si>
-  <si>
-    <t>Gi Jababeka</t>
-  </si>
-  <si>
-    <t>Jababeka</t>
-  </si>
-  <si>
-    <t>Bekasi</t>
-  </si>
-  <si>
-    <t>Gi.Serang</t>
-  </si>
-  <si>
-    <t>Gi Cilegon</t>
-  </si>
-  <si>
-    <t>Asahimas</t>
-  </si>
-  <si>
-    <t>Anyer</t>
-  </si>
-  <si>
-    <t>Menes</t>
-  </si>
-  <si>
-    <t>Saketi</t>
-  </si>
-  <si>
-    <t>Shelter.Bekasi</t>
-  </si>
-  <si>
-    <t>Bekasi Kota</t>
-  </si>
-  <si>
-    <t>Kandangsapi</t>
-  </si>
-  <si>
-    <t>Plumpang</t>
-  </si>
-  <si>
-    <t>Sumedang</t>
-  </si>
-  <si>
-    <t>Kadipaten</t>
-  </si>
-  <si>
-    <t>Arjawinangun</t>
-  </si>
-  <si>
-    <t>Jatibarang</t>
-  </si>
-  <si>
-    <t>Indramayu</t>
-  </si>
-  <si>
-    <t>Mundu</t>
-  </si>
-  <si>
-    <t>Sunyaragi</t>
-  </si>
-  <si>
-    <t>Cianjur</t>
-  </si>
-  <si>
-    <t>Padalarang</t>
-  </si>
-  <si>
-    <t>Utara</t>
-  </si>
-  <si>
-    <t>Cigereleng</t>
-  </si>
-  <si>
-    <t>Bandung</t>
-  </si>
-  <si>
-    <t>Ujungberung</t>
-  </si>
-  <si>
-    <t>Rancaekek</t>
-  </si>
-  <si>
-    <t>Cikasungka</t>
-  </si>
-  <si>
-    <t>Malangbong</t>
-  </si>
-  <si>
-    <t>Tasik</t>
-  </si>
-  <si>
-    <t>Garut</t>
-  </si>
-  <si>
-    <t>Selatan</t>
-  </si>
-  <si>
-    <t>Sukabumi</t>
-  </si>
-  <si>
-    <t>Lembursitu</t>
-  </si>
-  <si>
-    <t>Subang</t>
-  </si>
-  <si>
-    <t>Purwakarta</t>
-  </si>
-  <si>
-    <t>Ciamis</t>
-  </si>
-  <si>
-    <t>Ganjaresik</t>
-  </si>
-  <si>
-    <t>Darmaraja</t>
-  </si>
-  <si>
-    <t>Bandung Selatan</t>
-  </si>
-  <si>
-    <t>Sumedang Kota</t>
-  </si>
-  <si>
-    <t>Weleri</t>
-  </si>
-  <si>
-    <t>Kalasan</t>
-  </si>
-  <si>
-    <t>Salatiga</t>
-  </si>
-  <si>
-    <t>Krapyak</t>
-  </si>
-  <si>
-    <t>Semarang</t>
-  </si>
-  <si>
-    <t>Demak</t>
-  </si>
-  <si>
-    <t>Mranggen</t>
-  </si>
-  <si>
-    <t>Pdlamper</t>
-  </si>
-  <si>
-    <t>Jati</t>
-  </si>
-  <si>
-    <t>Jepara</t>
-  </si>
-  <si>
-    <t>Pati</t>
-  </si>
-  <si>
-    <t>Blora</t>
-  </si>
-  <si>
-    <t>Cepu</t>
-  </si>
-  <si>
-    <t>Bojonegoro</t>
-  </si>
-  <si>
-    <t>Rawalo</t>
-  </si>
-  <si>
-    <t>Wangon</t>
-  </si>
-  <si>
-    <t>Cilacap</t>
-  </si>
-  <si>
-    <t>Pemalang</t>
-  </si>
-  <si>
-    <t>Kentungan</t>
-  </si>
-  <si>
-    <t>Mangkubumi</t>
-  </si>
-  <si>
-    <t>Pedan</t>
-  </si>
-  <si>
-    <t>Klaten</t>
-  </si>
-  <si>
-    <t>Mojosongo</t>
-  </si>
-  <si>
-    <t>Ungaran</t>
-  </si>
-  <si>
-    <t>Purwodadi</t>
-  </si>
-  <si>
-    <t>Kudus</t>
-  </si>
-  <si>
-    <t>Rembang</t>
-  </si>
-  <si>
-    <t>Jajar</t>
-  </si>
-  <si>
-    <t>Sragen</t>
-  </si>
-  <si>
-    <t>Kroya</t>
-  </si>
-  <si>
-    <t>Gombong</t>
-  </si>
-  <si>
-    <t>Kebumen</t>
-  </si>
-  <si>
-    <t>Purworejo</t>
-  </si>
-  <si>
-    <t>Wates</t>
-  </si>
-  <si>
-    <t>Bantul</t>
-  </si>
-  <si>
-    <t>Purwokerto</t>
-  </si>
-  <si>
-    <t>Ajibarang</t>
-  </si>
-  <si>
-    <t>Bumiayu</t>
-  </si>
-  <si>
-    <t>Balapulang</t>
-  </si>
-  <si>
-    <t>Slawi</t>
-  </si>
-  <si>
-    <t>Brebes</t>
-  </si>
-  <si>
-    <t>Tegal</t>
-  </si>
-  <si>
-    <t>Banyumas</t>
-  </si>
-  <si>
-    <t>Banjarnegara</t>
-  </si>
-  <si>
-    <t>Wonosobo</t>
-  </si>
-  <si>
-    <t>Parakan</t>
-  </si>
-  <si>
-    <t>Temanggung</t>
-  </si>
-  <si>
-    <t>Magelang</t>
-  </si>
-  <si>
-    <t>Solo</t>
-  </si>
-  <si>
-    <t>Arifin</t>
-  </si>
-  <si>
-    <t>Pakur</t>
-  </si>
-  <si>
-    <t>Karanganyar</t>
-  </si>
-  <si>
-    <t>Grogol</t>
-  </si>
-  <si>
-    <t>Sukoharjo</t>
-  </si>
-  <si>
-    <t>Wonogiri</t>
-  </si>
-  <si>
-    <t>Manisrejo</t>
-  </si>
-  <si>
-    <t>Madiun</t>
-  </si>
-  <si>
-    <t>Ponorogo</t>
-  </si>
-  <si>
-    <t>Trenggalek</t>
-  </si>
-  <si>
-    <t>Tulungagung</t>
-  </si>
-  <si>
-    <t>Caruban</t>
-  </si>
-  <si>
-    <t>Ngawi</t>
-  </si>
-  <si>
-    <t>Banaran</t>
-  </si>
-  <si>
-    <t>Kediri</t>
-  </si>
-  <si>
-    <t>Blitar</t>
-  </si>
-  <si>
-    <t>Wlingi</t>
-  </si>
-  <si>
-    <t>Agung</t>
-  </si>
-  <si>
-    <t>Lawang</t>
-  </si>
-  <si>
-    <t>Batu</t>
-  </si>
-  <si>
-    <t>Malang</t>
-  </si>
-  <si>
-    <t>Pandaan</t>
-  </si>
-  <si>
-    <t>Bangil</t>
-  </si>
-  <si>
-    <t>Gondangwetan</t>
-  </si>
-  <si>
-    <t>Dampit</t>
-  </si>
-  <si>
-    <t>Kepanjen</t>
-  </si>
-  <si>
-    <t>Tumpang</t>
-  </si>
-  <si>
-    <t>Gondanglegi</t>
-  </si>
-  <si>
-    <t>Babat</t>
-  </si>
-  <si>
-    <t>Tuban</t>
-  </si>
-  <si>
-    <t>Brondong</t>
-  </si>
-  <si>
-    <t>Sidayu</t>
-  </si>
-  <si>
-    <t>Gresik</t>
-  </si>
-  <si>
-    <t>Lamongan</t>
-  </si>
-  <si>
-    <t>Waru</t>
-  </si>
-  <si>
-    <t>Darmo</t>
-  </si>
-  <si>
-    <t>Babadan</t>
-  </si>
-  <si>
-    <t>Sidoarjo</t>
-  </si>
-  <si>
-    <t>Porong</t>
-  </si>
-  <si>
-    <t>Ketintang</t>
-  </si>
-  <si>
-    <t>Rungkut</t>
-  </si>
-  <si>
-    <t>Krian</t>
-  </si>
-  <si>
-    <t>Mojosari</t>
-  </si>
-  <si>
-    <t>Mojokerto</t>
-  </si>
-  <si>
-    <t>Mojoagung</t>
-  </si>
-  <si>
-    <t>Jombang</t>
-  </si>
-  <si>
-    <t>Kertosono</t>
-  </si>
-  <si>
-    <t>Nganjuk</t>
-  </si>
-  <si>
-    <t>Sawahan</t>
-  </si>
-  <si>
-    <t>Sier</t>
-  </si>
-  <si>
-    <t>Jatim-Intiland</t>
-  </si>
-  <si>
-    <t>Jember</t>
-  </si>
-  <si>
-    <t>Bondowoso</t>
-  </si>
-  <si>
-    <t>Situbondo</t>
-  </si>
-  <si>
-    <t>Pemaron</t>
-  </si>
-  <si>
-    <t>Baturiti</t>
-  </si>
-  <si>
-    <t>Gianyar</t>
-  </si>
-  <si>
-    <t>Payangan</t>
-  </si>
-  <si>
-    <t>Gilimanuk</t>
-  </si>
-  <si>
-    <t>Antosari</t>
-  </si>
-  <si>
-    <t>Tabanan</t>
-  </si>
-  <si>
-    <t>Pemecutan</t>
-  </si>
-  <si>
-    <t>Pesanggaran</t>
-  </si>
-  <si>
-    <t>Maulafa</t>
-  </si>
-  <si>
-    <t>Naibonat</t>
-  </si>
-  <si>
-    <t>Nonohonis</t>
-  </si>
-  <si>
-    <t>Kefamenanu</t>
-  </si>
-  <si>
-    <t>Singaraja</t>
-  </si>
-  <si>
-    <t>Tejakula</t>
-  </si>
-  <si>
-    <t>Amlapura</t>
-  </si>
-  <si>
-    <t>Kapal</t>
-  </si>
-  <si>
-    <t>Ubud</t>
-  </si>
-  <si>
-    <t>Bangli</t>
-  </si>
-  <si>
-    <t>Kintamani</t>
-  </si>
-  <si>
-    <t>Negara</t>
-  </si>
-  <si>
-    <t>Mtrm.Senggigi</t>
-  </si>
-  <si>
-    <t>Mtrm.Tanjung</t>
-  </si>
-  <si>
-    <t>Mtrm.Bayan</t>
-  </si>
-  <si>
-    <t>Mtrm.Sambelia</t>
-  </si>
-  <si>
-    <t>Mtrm.Selong</t>
-  </si>
-  <si>
-    <t>Mtrm.Praya</t>
-  </si>
-  <si>
-    <t>Mtrm.Kediri</t>
-  </si>
-  <si>
-    <t>Bali Timur</t>
-  </si>
-  <si>
-    <t>Sanur</t>
-  </si>
-  <si>
-    <t>Sengigi</t>
-  </si>
-  <si>
-    <t>Karang Joang</t>
-  </si>
-  <si>
-    <t>Balikpapan</t>
-  </si>
-  <si>
-    <t>Manggarsari</t>
-  </si>
-  <si>
-    <t>Senipah</t>
-  </si>
-  <si>
-    <t>Muara Jawa</t>
-  </si>
-  <si>
-    <t>Bukuan</t>
-  </si>
-  <si>
-    <t>Harapan Baru</t>
-  </si>
-  <si>
-    <t>Ulin</t>
-  </si>
-  <si>
-    <t>Cempaka</t>
-  </si>
-  <si>
-    <t>Rantau</t>
-  </si>
-  <si>
-    <t>Barikin</t>
-  </si>
-  <si>
-    <t>Komam</t>
-  </si>
-  <si>
-    <t>Longikis</t>
-  </si>
-  <si>
-    <t>Panajam.Petung</t>
-  </si>
-  <si>
-    <t>Palangkaraya</t>
-  </si>
-  <si>
-    <t>Mintin</t>
-  </si>
-  <si>
-    <t>Selatkapuas</t>
-  </si>
-  <si>
-    <t>Pontianak</t>
-  </si>
-  <si>
-    <t>Siantan.Potianak</t>
-  </si>
-  <si>
-    <t>Gi.Senggiring</t>
-  </si>
-  <si>
-    <t>Saigon.Pnk</t>
-  </si>
-  <si>
-    <t>Siantan.Pontianak</t>
-  </si>
-  <si>
-    <t>Kuaro</t>
-  </si>
-  <si>
-    <t>Karingau</t>
-  </si>
-  <si>
-    <t>Sebangau</t>
-  </si>
-  <si>
-    <t>Senggiring</t>
-  </si>
-  <si>
-    <t>Jatim Waru</t>
-  </si>
-  <si>
-    <t>Kima</t>
-  </si>
-  <si>
-    <t>Tello</t>
-  </si>
-  <si>
-    <t>Parepare</t>
-  </si>
-  <si>
-    <t>Sidrap</t>
-  </si>
-  <si>
-    <t>Talise</t>
-  </si>
-  <si>
-    <t>Botupingge</t>
-  </si>
-  <si>
-    <t>Palopo</t>
-  </si>
-  <si>
-    <t>Daya</t>
-  </si>
-  <si>
-    <t>Panakukang</t>
-  </si>
-  <si>
-    <t>Sungguminasa</t>
-  </si>
-  <si>
-    <t>Tallasa</t>
-  </si>
-  <si>
-    <t>Jeneponto</t>
-  </si>
-  <si>
-    <t>Bulukumba</t>
-  </si>
-  <si>
-    <t>Sinjai</t>
-  </si>
-  <si>
-    <t>Bone</t>
-  </si>
-  <si>
-    <t>Soppeng</t>
-  </si>
-  <si>
-    <t>Makale</t>
-  </si>
-  <si>
-    <t>Manado</t>
-  </si>
-  <si>
-    <t>Ranomut</t>
-  </si>
-  <si>
-    <t>Sawangan</t>
-  </si>
-  <si>
-    <t>Tonsea</t>
-  </si>
-  <si>
-    <t>Tomohon</t>
-  </si>
-  <si>
-    <t>Telling</t>
-  </si>
-  <si>
-    <t>Puuwatu</t>
-  </si>
-  <si>
-    <t>Almira</t>
-  </si>
-  <si>
-    <t>Damkar</t>
-  </si>
-  <si>
-    <t>Sulutenggo</t>
-  </si>
-  <si>
-    <t>Kendari</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -3044,7 +1817,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3067,15 +1840,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3088,7 +1852,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3121,34 +1885,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3159,7 +1902,28 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{97EE70E1-8384-415D-8388-999237D6529A}"/>
     <cellStyle name="Percent 2" xfId="2" xr:uid="{75A9E805-7EB4-4533-8ACA-B4D9A8CEA9DA}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3471,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086B36CC-6BF7-4A6F-A4D4-40503F5C0013}">
   <dimension ref="A2:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3480,7 +2244,9 @@
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -3510,8 +2276,8 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>530</v>
+      <c r="E3" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3527,8 +2293,8 @@
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>535</v>
+      <c r="E4" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3544,8 +2310,8 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>536</v>
+      <c r="E5" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3561,8 +2327,8 @@
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>537</v>
+      <c r="E6" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3578,8 +2344,8 @@
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>538</v>
+      <c r="E7" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3595,8 +2361,8 @@
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>539</v>
+      <c r="E8" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3612,8 +2378,8 @@
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>531</v>
+      <c r="E9" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3629,8 +2395,8 @@
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>540</v>
+      <c r="E10" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3646,8 +2412,8 @@
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>541</v>
+      <c r="E11" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3663,8 +2429,8 @@
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>540</v>
+      <c r="E12" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3680,8 +2446,8 @@
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>542</v>
+      <c r="E13" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3697,8 +2463,8 @@
       <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>542</v>
+      <c r="E14" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3714,8 +2480,8 @@
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>531</v>
+      <c r="E15" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3731,8 +2497,8 @@
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>532</v>
+      <c r="E16" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3748,8 +2514,8 @@
       <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>543</v>
+      <c r="E17" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3765,8 +2531,8 @@
       <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>544</v>
+      <c r="E18" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3782,8 +2548,8 @@
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>545</v>
+      <c r="E19" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3799,8 +2565,8 @@
       <c r="D20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>533</v>
+      <c r="E20" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3816,8 +2582,8 @@
       <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>546</v>
+      <c r="E21" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3833,8 +2599,8 @@
       <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>547</v>
+      <c r="E22" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3850,8 +2616,8 @@
       <c r="D23" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>546</v>
+      <c r="E23" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3867,8 +2633,8 @@
       <c r="D24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>548</v>
+      <c r="E24" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3884,8 +2650,8 @@
       <c r="D25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>549</v>
+      <c r="E25" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3901,8 +2667,8 @@
       <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>543</v>
+      <c r="E26" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3918,8 +2684,8 @@
       <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>550</v>
+      <c r="E27" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3935,8 +2701,8 @@
       <c r="D28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>551</v>
+      <c r="E28" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3952,8 +2718,8 @@
       <c r="D29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>552</v>
+      <c r="E29" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3969,8 +2735,8 @@
       <c r="D30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>550</v>
+      <c r="E30" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3986,8 +2752,8 @@
       <c r="D31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>534</v>
+      <c r="E31" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4003,8 +2769,8 @@
       <c r="D32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>551</v>
+      <c r="E32" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4020,8 +2786,8 @@
       <c r="D33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>553</v>
+      <c r="E33" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4037,8 +2803,8 @@
       <c r="D34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>552</v>
+      <c r="E34" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4054,8 +2820,8 @@
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="11" t="s">
-        <v>554</v>
+      <c r="E35" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4071,8 +2837,8 @@
       <c r="D36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>543</v>
+      <c r="E36" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4088,8 +2854,8 @@
       <c r="D37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>555</v>
+      <c r="E37" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4105,8 +2871,8 @@
       <c r="D38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>562</v>
+      <c r="E38" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4122,8 +2888,8 @@
       <c r="D39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>555</v>
+      <c r="E39" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4139,8 +2905,8 @@
       <c r="D40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>530</v>
+      <c r="E40" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4156,8 +2922,8 @@
       <c r="D41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>530</v>
+      <c r="E41" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4173,8 +2939,8 @@
       <c r="D42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>563</v>
+      <c r="E42" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4190,8 +2956,8 @@
       <c r="D43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>564</v>
+      <c r="E43" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4207,8 +2973,8 @@
       <c r="D44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>565</v>
+      <c r="E44" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4224,8 +2990,8 @@
       <c r="D45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="11" t="s">
-        <v>566</v>
+      <c r="E45" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4241,8 +3007,8 @@
       <c r="D46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="11" t="s">
-        <v>567</v>
+      <c r="E46" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4258,8 +3024,8 @@
       <c r="D47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="11" t="s">
-        <v>568</v>
+      <c r="E47" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4275,8 +3041,8 @@
       <c r="D48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>569</v>
+      <c r="E48" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4292,8 +3058,8 @@
       <c r="D49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>570</v>
+      <c r="E49" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4309,8 +3075,8 @@
       <c r="D50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>556</v>
+      <c r="E50" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4326,8 +3092,8 @@
       <c r="D51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="11" t="s">
-        <v>557</v>
+      <c r="E51" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4343,8 +3109,8 @@
       <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>558</v>
+      <c r="E52" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4360,8 +3126,8 @@
       <c r="D53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="11" t="s">
-        <v>545</v>
+      <c r="E53" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4377,8 +3143,8 @@
       <c r="D54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>544</v>
+      <c r="E54" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4394,8 +3160,8 @@
       <c r="D55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="11" t="s">
-        <v>568</v>
+      <c r="E55" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4411,8 +3177,8 @@
       <c r="D56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>571</v>
+      <c r="E56" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4428,8 +3194,8 @@
       <c r="D57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>550</v>
+      <c r="E57" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4445,8 +3211,8 @@
       <c r="D58" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="11" t="s">
-        <v>559</v>
+      <c r="E58" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4462,8 +3228,8 @@
       <c r="D59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="11" t="s">
-        <v>560</v>
+      <c r="E59" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4479,8 +3245,8 @@
       <c r="D60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="11" t="s">
-        <v>561</v>
+      <c r="E60" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4493,16 +3259,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917118A0-60AE-46CB-8B43-93934C46C9DE}">
   <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B41" sqref="B3:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -4515,7 +3281,7 @@
       <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="10" t="s">
         <v>529</v>
       </c>
     </row>
@@ -4529,8 +3295,8 @@
       <c r="D3" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>917</v>
+      <c r="E3" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -4543,8 +3309,8 @@
       <c r="D4" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>918</v>
+      <c r="E4" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -4557,8 +3323,8 @@
       <c r="D5" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>919</v>
+      <c r="E5" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -4571,8 +3337,8 @@
       <c r="D6" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>920</v>
+      <c r="E6" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -4585,8 +3351,8 @@
       <c r="D7" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>921</v>
+      <c r="E7" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -4599,8 +3365,8 @@
       <c r="D8" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>920</v>
+      <c r="E8" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -4613,8 +3379,8 @@
       <c r="D9" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>922</v>
+      <c r="E9" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -4627,8 +3393,8 @@
       <c r="D10" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>923</v>
+      <c r="E10" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -4641,8 +3407,8 @@
       <c r="D11" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>921</v>
+      <c r="E11" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -4655,8 +3421,8 @@
       <c r="D12" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>924</v>
+      <c r="E12" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -4669,8 +3435,8 @@
       <c r="D13" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>919</v>
+      <c r="E13" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -4683,8 +3449,8 @@
       <c r="D14" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>925</v>
+      <c r="E14" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -4697,8 +3463,8 @@
       <c r="D15" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>636</v>
+      <c r="E15" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -4711,8 +3477,8 @@
       <c r="D16" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>926</v>
+      <c r="E16" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -4725,8 +3491,8 @@
       <c r="D17" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>919</v>
+      <c r="E17" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -4739,8 +3505,8 @@
       <c r="D18" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>927</v>
+      <c r="E18" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -4753,8 +3519,8 @@
       <c r="D19" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>928</v>
+      <c r="E19" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -4767,8 +3533,8 @@
       <c r="D20" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>929</v>
+      <c r="E20" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -4781,8 +3547,8 @@
       <c r="D21" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>930</v>
+      <c r="E21" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -4795,8 +3561,8 @@
       <c r="D22" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>931</v>
+      <c r="E22" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -4809,8 +3575,8 @@
       <c r="D23" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>932</v>
+      <c r="E23" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -4823,8 +3589,8 @@
       <c r="D24" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>933</v>
+      <c r="E24" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -4837,8 +3603,8 @@
       <c r="D25" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>921</v>
+      <c r="E25" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -4851,8 +3617,8 @@
       <c r="D26" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>921</v>
+      <c r="E26" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -4865,8 +3631,8 @@
       <c r="D27" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>934</v>
+      <c r="E27" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -4879,8 +3645,8 @@
       <c r="D28" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>944</v>
+      <c r="E28" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -4893,8 +3659,8 @@
       <c r="D29" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="E29" s="21" t="s">
-        <v>944</v>
+      <c r="E29" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -4907,8 +3673,8 @@
       <c r="D30" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>944</v>
+      <c r="E30" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -4921,8 +3687,8 @@
       <c r="D31" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>944</v>
+      <c r="E31" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -4935,8 +3701,8 @@
       <c r="D32" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="E32" s="21" t="s">
-        <v>935</v>
+      <c r="E32" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -4949,8 +3715,8 @@
       <c r="D33" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>936</v>
+      <c r="E33" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -4963,8 +3729,8 @@
       <c r="D34" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="E34" s="21" t="s">
-        <v>937</v>
+      <c r="E34" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -4977,8 +3743,8 @@
       <c r="D35" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>938</v>
+      <c r="E35" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -4991,8 +3757,8 @@
       <c r="D36" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>939</v>
+      <c r="E36" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -5005,8 +3771,8 @@
       <c r="D37" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>940</v>
+      <c r="E37" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -5019,8 +3785,8 @@
       <c r="D38" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="E38" s="21" t="s">
-        <v>941</v>
+      <c r="E38" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -5033,8 +3799,8 @@
       <c r="D39" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>945</v>
+      <c r="E39" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -5047,8 +3813,8 @@
       <c r="D40" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="E40" s="21" t="s">
-        <v>942</v>
+      <c r="E40" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -5061,8 +3827,8 @@
       <c r="D41" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="E41" s="21" t="s">
-        <v>943</v>
+      <c r="E41" s="13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5074,15 +3840,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C7BD66-863C-455D-8F0D-8E1F7498274F}">
   <dimension ref="B2:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B68" sqref="B3:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="4" width="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99.42578125" customWidth="1"/>
+    <col min="9" max="9" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -5095,7 +3866,7 @@
       <c r="D2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5109,8 +3880,8 @@
       <c r="D3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>572</v>
+      <c r="E3" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -5123,8 +3894,8 @@
       <c r="D4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>583</v>
+      <c r="E4" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -5137,8 +3908,8 @@
       <c r="D5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>584</v>
+      <c r="E5" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -5151,8 +3922,8 @@
       <c r="D6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>585</v>
+      <c r="E6" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -5165,8 +3936,8 @@
       <c r="D7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>614</v>
+      <c r="E7" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -5179,8 +3950,8 @@
       <c r="D8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>586</v>
+      <c r="E8" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -5193,8 +3964,8 @@
       <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>614</v>
+      <c r="E9" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -5207,8 +3978,8 @@
       <c r="D10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>587</v>
+      <c r="E10" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -5221,8 +3992,8 @@
       <c r="D11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>588</v>
+      <c r="E11" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -5235,8 +4006,8 @@
       <c r="D12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>573</v>
+      <c r="E12" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -5249,8 +4020,8 @@
       <c r="D13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>584</v>
+      <c r="E13" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -5263,8 +4034,8 @@
       <c r="D14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>589</v>
+      <c r="E14" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -5277,8 +4048,8 @@
       <c r="D15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>585</v>
+      <c r="E15" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -5291,8 +4062,8 @@
       <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>584</v>
+      <c r="E16" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -5305,8 +4076,8 @@
       <c r="D17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>583</v>
+      <c r="E17" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -5319,8 +4090,8 @@
       <c r="D18" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>572</v>
+      <c r="E18" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -5333,8 +4104,8 @@
       <c r="D19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>590</v>
+      <c r="E19" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -5347,8 +4118,8 @@
       <c r="D20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>574</v>
+      <c r="E20" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -5361,8 +4132,8 @@
       <c r="D21" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>575</v>
+      <c r="E21" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -5375,8 +4146,8 @@
       <c r="D22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>576</v>
+      <c r="E22" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -5389,8 +4160,8 @@
       <c r="D23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>615</v>
+      <c r="E23" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -5403,8 +4174,8 @@
       <c r="D24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>577</v>
+      <c r="E24" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -5417,8 +4188,8 @@
       <c r="D25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>578</v>
+      <c r="E25" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -5431,8 +4202,8 @@
       <c r="D26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>616</v>
+      <c r="E26" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -5445,8 +4216,8 @@
       <c r="D27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>617</v>
+      <c r="E27" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -5459,8 +4230,8 @@
       <c r="D28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>579</v>
+      <c r="E28" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -5473,8 +4244,8 @@
       <c r="D29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>579</v>
+      <c r="E29" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -5487,8 +4258,8 @@
       <c r="D30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>591</v>
+      <c r="E30" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -5501,8 +4272,8 @@
       <c r="D31" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>591</v>
+      <c r="E31" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -5515,8 +4286,8 @@
       <c r="D32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>592</v>
+      <c r="E32" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -5529,8 +4300,8 @@
       <c r="D33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>572</v>
+      <c r="E33" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -5543,8 +4314,8 @@
       <c r="D34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>580</v>
+      <c r="E34" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -5557,8 +4328,8 @@
       <c r="D35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>581</v>
+      <c r="E35" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -5571,8 +4342,8 @@
       <c r="D36" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>582</v>
+      <c r="E36" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -5585,8 +4356,8 @@
       <c r="D37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>618</v>
+      <c r="E37" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -5599,8 +4370,8 @@
       <c r="D38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>593</v>
+      <c r="E38" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -5613,8 +4384,8 @@
       <c r="D39" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>594</v>
+      <c r="E39" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -5627,8 +4398,8 @@
       <c r="D40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>619</v>
+      <c r="E40" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -5641,8 +4412,8 @@
       <c r="D41" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>595</v>
+      <c r="E41" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -5655,8 +4426,8 @@
       <c r="D42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>596</v>
+      <c r="E42" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -5669,8 +4440,8 @@
       <c r="D43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>597</v>
+      <c r="E43" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -5683,8 +4454,8 @@
       <c r="D44" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>572</v>
+      <c r="E44" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -5697,8 +4468,8 @@
       <c r="D45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>598</v>
+      <c r="E45" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -5711,8 +4482,8 @@
       <c r="D46" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>589</v>
+      <c r="E46" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -5725,8 +4496,8 @@
       <c r="D47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>584</v>
+      <c r="E47" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -5739,8 +4510,8 @@
       <c r="D48" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>599</v>
+      <c r="E48" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -5753,8 +4524,8 @@
       <c r="D49" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>600</v>
+      <c r="E49" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -5767,8 +4538,8 @@
       <c r="D50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>620</v>
+      <c r="E50" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -5781,8 +4552,8 @@
       <c r="D51" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>601</v>
+      <c r="E51" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -5795,8 +4566,8 @@
       <c r="D52" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>602</v>
+      <c r="E52" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -5809,8 +4580,8 @@
       <c r="D53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>603</v>
+      <c r="E53" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -5823,8 +4594,8 @@
       <c r="D54" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>604</v>
+      <c r="E54" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -5837,8 +4608,8 @@
       <c r="D55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>605</v>
+      <c r="E55" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -5851,8 +4622,8 @@
       <c r="D56" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>582</v>
+      <c r="E56" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -5865,8 +4636,8 @@
       <c r="D57" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>605</v>
+      <c r="E57" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -5879,8 +4650,8 @@
       <c r="D58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="14" t="s">
-        <v>606</v>
+      <c r="E58" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -5893,8 +4664,8 @@
       <c r="D59" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>606</v>
+      <c r="E59" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -5907,8 +4678,8 @@
       <c r="D60" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>607</v>
+      <c r="E60" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -5921,8 +4692,8 @@
       <c r="D61" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>608</v>
+      <c r="E61" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -5935,8 +4706,8 @@
       <c r="D62" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>602</v>
+      <c r="E62" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -5949,8 +4720,8 @@
       <c r="D63" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>609</v>
+      <c r="E63" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -5963,8 +4734,8 @@
       <c r="D64" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="14" t="s">
-        <v>610</v>
+      <c r="E64" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -5977,8 +4748,8 @@
       <c r="D65" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E65" s="14" t="s">
-        <v>609</v>
+      <c r="E65" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -5991,8 +4762,8 @@
       <c r="D66" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>611</v>
+      <c r="E66" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -6005,8 +4776,8 @@
       <c r="D67" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>612</v>
+      <c r="E67" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:5">
@@ -6019,8 +4790,8 @@
       <c r="D68" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="14" t="s">
-        <v>613</v>
+      <c r="E68" s="12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6032,16 +4803,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE57ADC-EF66-4A86-8D55-95202DAEC146}">
   <dimension ref="B2:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B88" sqref="B3:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="95.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -6054,7 +4829,7 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>529</v>
       </c>
     </row>
@@ -6068,8 +4843,8 @@
       <c r="D3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>621</v>
+      <c r="E3" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -6082,8 +4857,8 @@
       <c r="D4" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>627</v>
+      <c r="E4" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -6096,8 +4871,8 @@
       <c r="D5" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>628</v>
+      <c r="E5" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -6110,8 +4885,8 @@
       <c r="D6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>649</v>
+      <c r="E6" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -6124,8 +4899,8 @@
       <c r="D7" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>650</v>
+      <c r="E7" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -6138,8 +4913,8 @@
       <c r="D8" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>651</v>
+      <c r="E8" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -6152,8 +4927,8 @@
       <c r="D9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>652</v>
+      <c r="E9" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -6166,8 +4941,8 @@
       <c r="D10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>653</v>
+      <c r="E10" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -6180,8 +4955,8 @@
       <c r="D11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>654</v>
+      <c r="E11" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -6194,8 +4969,8 @@
       <c r="D12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>627</v>
+      <c r="E12" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -6208,8 +4983,8 @@
       <c r="D13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>628</v>
+      <c r="E13" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -6222,8 +4997,8 @@
       <c r="D14" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>649</v>
+      <c r="E14" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -6236,8 +5011,8 @@
       <c r="D15" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>629</v>
+      <c r="E15" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -6250,8 +5025,8 @@
       <c r="D16" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>623</v>
+      <c r="E16" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -6264,8 +5039,8 @@
       <c r="D17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>630</v>
+      <c r="E17" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -6278,8 +5053,8 @@
       <c r="D18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>623</v>
+      <c r="E18" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -6292,8 +5067,8 @@
       <c r="D19" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>631</v>
+      <c r="E19" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -6306,8 +5081,8 @@
       <c r="D20" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>654</v>
+      <c r="E20" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -6320,8 +5095,8 @@
       <c r="D21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>627</v>
+      <c r="E21" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -6334,8 +5109,8 @@
       <c r="D22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>655</v>
+      <c r="E22" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -6348,8 +5123,8 @@
       <c r="D23" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>632</v>
+      <c r="E23" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -6362,8 +5137,8 @@
       <c r="D24" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>624</v>
+      <c r="E24" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -6376,8 +5151,8 @@
       <c r="D25" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>624</v>
+      <c r="E25" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -6390,8 +5165,8 @@
       <c r="D26" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>624</v>
+      <c r="E26" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -6404,8 +5179,8 @@
       <c r="D27" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>625</v>
+      <c r="E27" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -6418,8 +5193,8 @@
       <c r="D28" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>656</v>
+      <c r="E28" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -6432,8 +5207,8 @@
       <c r="D29" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>633</v>
+      <c r="E29" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -6446,8 +5221,8 @@
       <c r="D30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>634</v>
+      <c r="E30" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -6460,8 +5235,8 @@
       <c r="D31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>627</v>
+      <c r="E31" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -6474,8 +5249,8 @@
       <c r="D32" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>626</v>
+      <c r="E32" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -6488,8 +5263,8 @@
       <c r="D33" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>626</v>
+      <c r="E33" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -6502,8 +5277,8 @@
       <c r="D34" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E34" s="14" t="s">
-        <v>657</v>
+      <c r="E34" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -6516,8 +5291,8 @@
       <c r="D35" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>657</v>
+      <c r="E35" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -6530,8 +5305,8 @@
       <c r="D36" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>658</v>
+      <c r="E36" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -6544,8 +5319,8 @@
       <c r="D37" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>658</v>
+      <c r="E37" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -6558,8 +5333,8 @@
       <c r="D38" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>658</v>
+      <c r="E38" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -6572,8 +5347,8 @@
       <c r="D39" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>659</v>
+      <c r="E39" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -6586,8 +5361,8 @@
       <c r="D40" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>660</v>
+      <c r="E40" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -6600,8 +5375,8 @@
       <c r="D41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>661</v>
+      <c r="E41" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -6614,8 +5389,8 @@
       <c r="D42" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>636</v>
+      <c r="E42" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -6628,8 +5403,8 @@
       <c r="D43" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="14" t="s">
-        <v>662</v>
+      <c r="E43" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -6642,8 +5417,8 @@
       <c r="D44" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="14" t="s">
-        <v>663</v>
+      <c r="E44" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -6656,8 +5431,8 @@
       <c r="D45" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E45" s="14" t="s">
-        <v>637</v>
+      <c r="E45" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -6670,8 +5445,8 @@
       <c r="D46" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E46" s="14" t="s">
-        <v>638</v>
+      <c r="E46" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -6684,8 +5459,8 @@
       <c r="D47" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>635</v>
+      <c r="E47" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -6698,8 +5473,8 @@
       <c r="D48" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>639</v>
+      <c r="E48" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -6712,8 +5487,8 @@
       <c r="D49" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E49" s="14" t="s">
-        <v>639</v>
+      <c r="E49" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -6726,8 +5501,8 @@
       <c r="D50" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E50" s="14" t="s">
-        <v>622</v>
+      <c r="E50" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -6740,8 +5515,8 @@
       <c r="D51" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="14" t="s">
-        <v>640</v>
+      <c r="E51" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -6754,8 +5529,8 @@
       <c r="D52" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="14" t="s">
-        <v>664</v>
+      <c r="E52" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -6768,8 +5543,8 @@
       <c r="D53" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="14" t="s">
-        <v>665</v>
+      <c r="E53" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -6782,8 +5557,8 @@
       <c r="D54" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E54" s="14" t="s">
-        <v>665</v>
+      <c r="E54" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -6796,8 +5571,8 @@
       <c r="D55" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>666</v>
+      <c r="E55" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -6810,8 +5585,8 @@
       <c r="D56" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>641</v>
+      <c r="E56" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -6824,8 +5599,8 @@
       <c r="D57" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>667</v>
+      <c r="E57" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -6838,8 +5613,8 @@
       <c r="D58" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E58" s="14" t="s">
-        <v>668</v>
+      <c r="E58" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -6852,8 +5627,8 @@
       <c r="D59" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>642</v>
+      <c r="E59" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -6866,8 +5641,8 @@
       <c r="D60" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>669</v>
+      <c r="E60" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -6880,8 +5655,8 @@
       <c r="D61" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>641</v>
+      <c r="E61" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -6894,8 +5669,8 @@
       <c r="D62" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>641</v>
+      <c r="E62" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -6908,8 +5683,8 @@
       <c r="D63" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E63" s="14" t="s">
-        <v>641</v>
+      <c r="E63" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -6922,8 +5697,8 @@
       <c r="D64" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E64" s="14" t="s">
-        <v>670</v>
+      <c r="E64" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -6936,8 +5711,8 @@
       <c r="D65" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E65" s="14" t="s">
-        <v>671</v>
+      <c r="E65" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -6950,8 +5725,8 @@
       <c r="D66" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>672</v>
+      <c r="E66" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -6964,8 +5739,8 @@
       <c r="D67" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>643</v>
+      <c r="E67" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:5">
@@ -6978,8 +5753,8 @@
       <c r="D68" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E68" s="14" t="s">
-        <v>672</v>
+      <c r="E68" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -6992,8 +5767,8 @@
       <c r="D69" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E69" s="14" t="s">
-        <v>644</v>
+      <c r="E69" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:5">
@@ -7006,8 +5781,8 @@
       <c r="D70" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E70" s="14" t="s">
-        <v>645</v>
+      <c r="E70" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:5">
@@ -7020,8 +5795,8 @@
       <c r="D71" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E71" s="14" t="s">
-        <v>646</v>
+      <c r="E71" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -7034,8 +5809,8 @@
       <c r="D72" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E72" s="14" t="s">
-        <v>673</v>
+      <c r="E72" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:5">
@@ -7048,8 +5823,8 @@
       <c r="D73" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E73" s="14" t="s">
-        <v>674</v>
+      <c r="E73" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:5">
@@ -7062,8 +5837,8 @@
       <c r="D74" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="14" t="s">
-        <v>675</v>
+      <c r="E74" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:5">
@@ -7076,8 +5851,8 @@
       <c r="D75" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>647</v>
+      <c r="E75" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:5">
@@ -7090,8 +5865,8 @@
       <c r="D76" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E76" s="14" t="s">
-        <v>676</v>
+      <c r="E76" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:5">
@@ -7104,8 +5879,8 @@
       <c r="D77" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>677</v>
+      <c r="E77" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:5">
@@ -7118,8 +5893,8 @@
       <c r="D78" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E78" s="14" t="s">
-        <v>678</v>
+      <c r="E78" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:5">
@@ -7132,8 +5907,8 @@
       <c r="D79" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E79" s="14" t="s">
-        <v>679</v>
+      <c r="E79" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="2:5">
@@ -7146,8 +5921,8 @@
       <c r="D80" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E80" s="14" t="s">
-        <v>680</v>
+      <c r="E80" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="2:5">
@@ -7160,8 +5935,8 @@
       <c r="D81" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E81" s="14" t="s">
-        <v>680</v>
+      <c r="E81" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="2:5">
@@ -7174,8 +5949,8 @@
       <c r="D82" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E82" s="14" t="s">
-        <v>681</v>
+      <c r="E82" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="2:5">
@@ -7188,8 +5963,8 @@
       <c r="D83" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>648</v>
+      <c r="E83" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="2:5">
@@ -7202,8 +5977,8 @@
       <c r="D84" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E84" s="14" t="s">
-        <v>679</v>
+      <c r="E84" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:5">
@@ -7216,8 +5991,8 @@
       <c r="D85" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E85" s="14" t="s">
-        <v>682</v>
+      <c r="E85" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="2:5">
@@ -7230,8 +6005,8 @@
       <c r="D86" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E86" s="14" t="s">
-        <v>648</v>
+      <c r="E86" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="2:5">
@@ -7244,8 +6019,8 @@
       <c r="D87" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="14" t="s">
-        <v>679</v>
+      <c r="E87" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="2:5">
@@ -7258,8 +6033,8 @@
       <c r="D88" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>683</v>
+      <c r="E88" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7269,20 +6044,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE20B5F5-E631-460D-A915-E4D905B53D35}">
-  <dimension ref="B2:E60"/>
+  <dimension ref="B2:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B60" sqref="B3:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
@@ -7292,11 +6068,11 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -7306,11 +6082,15 @@
       <c r="D3" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f>B3&amp;"-"&amp;C3&amp;"-"&amp;D3</f>
+        <v>Ring 1-JKT-SHELTER.BINTARO-NCS55A2-NPE-01-JKT-GANDUL-ASR9906-P-02</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -7320,11 +6100,15 @@
       <c r="D4" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F60" si="0">B4&amp;"-"&amp;C4&amp;"-"&amp;D4</f>
+        <v>Ring 1-JKT-SHELTER.BINTARO-NCS55A2-NPE-01-JKT-ODC.UPP.JJBB3.PETUKANGAN-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -7334,11 +6118,15 @@
       <c r="D5" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-ODC.UPP.JJBB3.PETUKANGAN-NE8000.M14-NPE-01-JKT-SHELTER.DURI.KOSAMBI-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
@@ -7348,11 +6136,15 @@
       <c r="D6" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-SHELTER.DURI.KOSAMBI-NE8000.M14-NPE-01-JKT-SHELTER.CIKOKOL-NE8000.M8-UPE-01</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
@@ -7362,11 +6154,15 @@
       <c r="D7" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-SHELTER.CIKOKOL-NE8000.M8-UPE-01-JKT-GERMAN.CENTER.SERPONG-NE8000.M8-UPE-02</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
@@ -7376,11 +6172,15 @@
       <c r="D8" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-GERMAN.CENTER.SERPONG-NE8000.M8-UPE-02-JKT-SHELTER.CITRAHABITAT-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
@@ -7390,11 +6190,15 @@
       <c r="D9" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-SHELTER.CITRAHABITAT-NE8000.M14-NPE-01-JKT-SHELTER.GI.BALARAJA-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -7404,11 +6208,15 @@
       <c r="D10" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-SHELTER.GI.BALARAJA-NE8000.M14-NPE-01-JKT-SHELTER.GI.CIKANDE-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="6" t="s">
         <v>3</v>
       </c>
@@ -7418,11 +6226,15 @@
       <c r="D11" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-SHELTER.GI.CIKANDE-NE8000.M14-NPE-01-JKT-SERANG-NE8000.M8-NPE-02</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
@@ -7432,11 +6244,15 @@
       <c r="D12" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-SERANG-NE8000.M8-NPE-02-JKT-GI.RANGKAS-NE8000.M14-UPE-01</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
@@ -7446,11 +6262,15 @@
       <c r="D13" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-GI.RANGKAS-NE8000.M14-UPE-01-JKT-GI.BUNAR-NE8000.M14-NPE-02</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
@@ -7460,11 +6280,15 @@
       <c r="D14" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-GI.BUNAR-NE8000.M14-NPE-02-JKT-BOGOR.BARU-NE8000.M8-NPE-02</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
@@ -7474,11 +6298,15 @@
       <c r="D15" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-BOGOR.BARU-NE8000.M8-NPE-02-JKT-SHELTER.SENTUL-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
@@ -7488,11 +6316,15 @@
       <c r="D16" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-SHELTER.SENTUL-NE8000.M14-NPE-01-JKT-BIZNET-TECHNOVILAGE-NE8000.M8-UPE-05</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
@@ -7502,11 +6334,15 @@
       <c r="D17" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JKT-BIZNET-TECHNOVILAGE-NE8000.M8-UPE-05-JKT-GANDUL-ASR9906-P-02</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
@@ -7516,11 +6352,15 @@
       <c r="D18" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JKT-SHELTER.BINTARO-NCS55A2-NPE-01-JKT-GANDUL-ASR9906-P-02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
@@ -7530,11 +6370,15 @@
       <c r="D19" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JKT-SHELTER.BINTARO-NCS55A2-NPE-01-JKT-ODC.UPP.JJBB3.PETUKANGAN-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="6" t="s">
         <v>16</v>
       </c>
@@ -7544,11 +6388,15 @@
       <c r="D20" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JKT-ODC.UPP.JJBB3.PETUKANGAN-NE8000.M14-NPE-01-JKT-SHELTER.DURI.KOSAMBI-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
@@ -7558,11 +6406,15 @@
       <c r="D21" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JKT-SHELTER.DURI.KOSAMBI-NE8000.M14-NPE-01-JKT-SHELTER.KEBON.JERUK-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
@@ -7572,11 +6424,15 @@
       <c r="D22" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JKT-SHELTER.KEBON.JERUK-NE8000.M14-NPE-01-JKT-SHELTER.SETIABUDI-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="6" t="s">
         <v>16</v>
       </c>
@@ -7586,11 +6442,15 @@
       <c r="D23" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JKT-SHELTER.SETIABUDI-NE8000.M14-NPE-01-JKT-DC.CYBER2-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="6" t="s">
         <v>16</v>
       </c>
@@ -7600,11 +6460,15 @@
       <c r="D24" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JKT-DC.CYBER2-NE8000.M14-NPE-01-JKT-TAMAN.RASUNA-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
@@ -7614,11 +6478,15 @@
       <c r="D25" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JKT-TAMAN.RASUNA-NE8000.M14-NPE-01-JKT-SHELTER.CAWANG-NCS5504-P-01</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
@@ -7628,11 +6496,15 @@
       <c r="D26" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 3-JKT-BOGOR.BARU-NE8000.M8-NPE-02-JKT-SHELTER.SENTUL-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="6" t="s">
         <v>26</v>
       </c>
@@ -7642,11 +6514,15 @@
       <c r="D27" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 3-JKT-SHELTER.SENTUL-NE8000.M14-NPE-01-JKT-SHELTER.CIBINONG-NE8000.M14-UPE-06</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="6" t="s">
         <v>26</v>
       </c>
@@ -7656,11 +6532,15 @@
       <c r="D28" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 3-JKT-SHELTER.CIBINONG-NE8000.M14-UPE-01-JKT-SHELTER.GANDARIA-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="6" t="s">
         <v>26</v>
       </c>
@@ -7670,11 +6550,15 @@
       <c r="D29" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 3-JKT-SHELTER.GANDARIA-NE8000.M8-NPE-01-JKT-SHELTER.CAWANG-NCS5504-P-01</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="6" t="s">
         <v>33</v>
       </c>
@@ -7684,11 +6568,15 @@
       <c r="D30" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 4-JKT-GI.PULOGADUNG-NE8000.M14-NPE-01-JKT-SHELTER.APD.GAMBIR-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="6" t="s">
         <v>33</v>
       </c>
@@ -7698,11 +6586,15 @@
       <c r="D31" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 4-JKT-SHELTER.APD.GAMBIR-NE8000.M14-NPE-01-JKT-SHELTER.ANGKE-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
@@ -7712,11 +6604,15 @@
       <c r="D32" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 4-JKT-SHELTER.ANGKE-NE8000.M14-NPE-01-JKT-SHELTER.KEMAYORAN-NE8000.M14-NPE-02</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="6" t="s">
         <v>33</v>
       </c>
@@ -7726,11 +6622,15 @@
       <c r="D33" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 4-JKT-SHELTER.KEMAYORAN-NE8000.M14-NPE-02-JKT-SUNTER-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="6" t="s">
         <v>33</v>
       </c>
@@ -7740,11 +6640,15 @@
       <c r="D34" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 4-JKT-SUNTER-NE8000.M14-NPE-01-JKT-GI.PULOGADUNG-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
@@ -7754,11 +6658,15 @@
       <c r="D35" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JKT-BOGOR.BARU-NE8000.M8-NPE-02-JKT-ODC.BOGOR.TIMUR-NE8000.M14-UPE-01</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="6" t="s">
         <v>38</v>
       </c>
@@ -7768,11 +6676,15 @@
       <c r="D36" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="E36" s="6">
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JKT-ODC.BOGOR.TIMUR-NE8000.M14-UPE-01-JKT-SHELTER.KD.BADAK-NE8000.M14-UPE-04</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="6" t="s">
         <v>38</v>
       </c>
@@ -7782,11 +6694,15 @@
       <c r="D37" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JKT-SHELTER.KD.BADAK-NE8000.M14-UPE-04-JKT-ODC.BOJONG.GEDE-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
@@ -7796,11 +6712,15 @@
       <c r="D38" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JKT-ODC.BOJONG.GEDE-NE8000.M14-UPE-03-JKT-CIMANGGIS-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="6" t="s">
         <v>38</v>
       </c>
@@ -7810,11 +6730,15 @@
       <c r="D39" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JKT-CIMANGGIS-NE8000.M14-UPE-02-JKT-APJ.DEPOK-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="6" t="s">
         <v>38</v>
       </c>
@@ -7824,11 +6748,15 @@
       <c r="D40" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JKT-APJ.DEPOK-NE8000.M14-UPE-03-JKT-SHELTER.GANDARIA-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="6" t="s">
         <v>53</v>
       </c>
@@ -7838,11 +6766,15 @@
       <c r="D41" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JKT-SHELTER.GANDARIA-NE8000.M14-NPE-01-JKT-SHELTER.CAWANG-NCS5504-P-01</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="6" t="s">
         <v>53</v>
       </c>
@@ -7852,11 +6784,15 @@
       <c r="D42" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JKT-SHELTER.GANDARIA-NE8000.M8-NPE-01-JKT-SHELTER.CIBINONG-NE8000.M14-UPE-06</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="6" t="s">
         <v>53</v>
       </c>
@@ -7866,11 +6802,15 @@
       <c r="D43" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JKT-SHELTER.CIBINONG-NE8000.M14-UPE-01-JKT-SHELTER.CILEUNGSI-NE8000.M14-UPE-04</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="6" t="s">
         <v>53</v>
       </c>
@@ -7880,11 +6820,15 @@
       <c r="D44" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JKT-SHELTER.CILEUNGSI-NE8000.M14-UPE-01-JKT-SHELTER.GI.JABABEKA-NE8000.M14-UPE-01</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="6" t="s">
         <v>53</v>
       </c>
@@ -7894,11 +6838,15 @@
       <c r="D45" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JKT-SHELTER.GI.JABABEKA-NE8000.M14-UPE-01-JKT-JABABEKA-NE8000.M14-UPE-05</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="6" t="s">
         <v>53</v>
       </c>
@@ -7908,11 +6856,15 @@
       <c r="D46" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JKT-JABABEKA-NE8000.M14-UPE-05-JKT-SHELTER.BEKASI-NE8000.M14-UPE-01</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="6" t="s">
         <v>53</v>
       </c>
@@ -7922,11 +6874,15 @@
       <c r="D47" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JKT-SHELTER.BEKASI-NE8000.M14-UPE-01-JKT-GI.PULOGADUNG-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="6" t="s">
         <v>53</v>
       </c>
@@ -7936,11 +6892,15 @@
       <c r="D48" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JKT-GI.PULOGADUNG-NE8000.M14-NPE-01-JKT-SHELTER.CAWANG-NCS5504-P-01</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="6" t="s">
         <v>98</v>
       </c>
@@ -7950,11 +6910,15 @@
       <c r="D49" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JKT-GI.SERANG-ASR9010-NPE-01-JKT-SHELTER.GI.CILEGON-NE8000.M14-UPE-01</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="6" t="s">
         <v>98</v>
       </c>
@@ -7964,11 +6928,15 @@
       <c r="D50" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JKT-SHELTER.GI.CILEGON-NE8000.M14-UPE-01-JKT-GI.ASAHIMAS-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="6" t="s">
         <v>98</v>
       </c>
@@ -7978,11 +6946,15 @@
       <c r="D51" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JKT-GI.ASAHIMAS-NE8000.M14-UPE-02-JKT-GI.ANYER-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" s="6" t="s">
         <v>98</v>
       </c>
@@ -7992,11 +6964,15 @@
       <c r="D52" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JKT-GI.ANYER-NE8000.M14-UPE-02-JKT-GI.MENES-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="6" t="s">
         <v>98</v>
       </c>
@@ -8006,11 +6982,15 @@
       <c r="D53" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JKT-GI.MENES-NE8000.M14-UPE-03-JKT-GI.SAKETI-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="6" t="s">
         <v>98</v>
       </c>
@@ -8020,11 +7000,15 @@
       <c r="D54" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JKT-GI.SAKETI-NE8000.M14-UPE-03-JKT-GI.RANGKAS-NE8000.M14-UPE-01</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="6" t="s">
         <v>107</v>
       </c>
@@ -8034,11 +7018,15 @@
       <c r="D55" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 8-JKT-SHELTER.BEKASI-ME3600-UPE-01-JKT-APJ.BEKASI.KOTA-ASR920.12SZ-UPE-02</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="6" t="s">
         <v>107</v>
       </c>
@@ -8048,11 +7036,15 @@
       <c r="D56" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 8-JKT-APJ.BEKASI.KOTA-ASR920.12SZ-UPE-02-JKT-SHELTER.UP3.BEKASI-ASR920-UPE-01</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="6" t="s">
         <v>111</v>
       </c>
@@ -8062,11 +7054,15 @@
       <c r="D57" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 9-JKT-GI.PULOGADUNG-NE8000.M14-NPE-01-JKT-SHELTER.BEKASI-NE8000.M14-UPE-01</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" s="6" t="s">
         <v>111</v>
       </c>
@@ -8076,11 +7072,15 @@
       <c r="D58" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 9-JKT-SHELTER.BEKASI-NE8000.M14-UPE-01-JKT-GI.KANDANGSAPI-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" s="6" t="s">
         <v>111</v>
       </c>
@@ -8090,11 +7090,15 @@
       <c r="D59" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 9-JKT-GI.KANDANGSAPI-NE8000.M14-NPE-01-JKT-SHELTER.PLUMPANG-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" s="6" t="s">
         <v>111</v>
       </c>
@@ -8104,31 +7108,40 @@
       <c r="D60" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>728</v>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 9-JKT-SHELTER.PLUMPANG-NE8000.M14-NPE-01-JKT-SUNTER-NE8000.M14-NPE-01</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F3:F60">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12777494-EA3E-46B9-A3EB-5D010688E1E6}">
-  <dimension ref="B2:E45"/>
+  <dimension ref="B2:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B44" sqref="B3:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="107.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:19">
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
@@ -8138,11 +7151,11 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:19">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -8152,11 +7165,33 @@
       <c r="D3" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f>B3&amp;"-"&amp;C3&amp;"-"&amp;D3</f>
+        <v>Ring 1-JABAR-SHELTER.GI.SUMEDANG-NE8000.M14-UPE-01-JABAR-SHELTER.UJUNGBERUNG-NCS5504-P-01</v>
+      </c>
+      <c r="K3" t="s">
+        <v>530</v>
+      </c>
+      <c r="L3" t="s">
+        <v>531</v>
+      </c>
+      <c r="M3" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>533</v>
+      </c>
+      <c r="R3" t="s">
+        <v>534</v>
+      </c>
+      <c r="S3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -8166,11 +7201,15 @@
       <c r="D4" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F44" si="0">B4&amp;"-"&amp;C4&amp;"-"&amp;D4</f>
+        <v>Ring 1-JABAR-SHELTER.GI.SUMEDANG-NE8000.M14-UPE-01-JABAR-SHELTER.GI.KADIPATEN-NE8000.M14-UPE-04</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
@@ -8180,11 +7219,15 @@
       <c r="D5" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JABAR-SHELTER.GI.KADIPATEN-NE8000.M14-UPE-04-JABAR-SHELTER.ARJAWINANGUN-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -8194,11 +7237,15 @@
       <c r="D6" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JABAR-SHELTER.ARJAWINANGUN-NE8000.M14-UPE-02-JABAR-SHELTER.JATIBARANG-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
@@ -8208,11 +7255,15 @@
       <c r="D7" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JABAR-SHELTER.JATIBARANG-NE8000.M14-UPE-03-JABAR-SHELTER.INDRAMAYU-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -8222,11 +7273,15 @@
       <c r="D8" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JABAR-SHELTER.INDRAMAYU-NE8000.M14-UPE-03-JABAR-SHELTER.SUNYARAGI-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -8236,11 +7291,15 @@
       <c r="D9" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JABAR-SHELTER.GI.SUMEDANG-NE8000.M14-UPE-01-JABAR-ODC.UP3.SUMEDANG-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
@@ -8250,11 +7309,15 @@
       <c r="D10" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JABAR-SHELTER.GI.KADIPATEN-NE8000.M14-UPE-04-JABAR-ODC.ULP.JATIWANGI-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
@@ -8264,11 +7327,15 @@
       <c r="D11" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JABAR-SHELTER.JATIBARANG-NE8000.M14-UPE-03-JABAR-GUDANG.MUNDU-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
@@ -8278,11 +7345,15 @@
       <c r="D12" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JABAR-GUDANG.MUNDU-NE8000.M14-UPE-02-JABAR-SHELTER.SUNYARAGI-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -8292,11 +7363,15 @@
       <c r="D13" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 1-JABAR-SHELTER.SUNYARAGI-NE8000.M14-NPE-01-JABAR-SHELTER.UJUNGBERUNG-NCS5504-P-01</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
       <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
@@ -8306,11 +7381,15 @@
       <c r="D14" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JABAR-SHELTER.CIANJUR-NE8000.M14-NPE-01-JABAR-SHELTER.PADALARANG-NE8000.M14-UPE-01</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
@@ -8320,11 +7399,15 @@
       <c r="D15" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JABAR-SHELTER.PADALARANG-NE8000.M14-UPE-01-JABAR-BANDUNG.UTARA-NE8000.M14-NPE-02</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
@@ -8334,11 +7417,15 @@
       <c r="D16" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JABAR-BANDUNG.UTARA-NE8000.M14-NPE-02-JABAR-SHELTER.UJUNGBERUNG-NE8000.M8-NPE-02</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
@@ -8348,11 +7435,15 @@
       <c r="D17" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JABAR-SHELTER.CIGERELENG-NE8000.M14-NPE-02-JABAR-SHELTER.CIANJUR-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
@@ -8362,11 +7453,15 @@
       <c r="D18" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="E18" s="14">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JABAR-SHELTER.CIGERELENG-NE8000.M14-NPE-02-JABAR-APD.BANDUNG-NE8000.M14-NPE-02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
@@ -8376,11 +7471,15 @@
       <c r="D19" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="E19" s="14">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JABAR-APD.BANDUNG-NE8000.M14-NPE-02-JABAR-BANDUNG.UTARA-NE8000.M14-NPE-02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
@@ -8390,11 +7489,15 @@
       <c r="D20" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+      <c r="E20" s="14">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 2-JABAR-SHELTER.CIGERELENG-NE8000.M14-NPE-02-JABAR-SHELTER.GI.MAJALAYA-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
@@ -8404,11 +7507,15 @@
       <c r="D21" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 3-JABAR-SHELTER.UJUNGBERUNG-NE8000.M8-NPE-02-JABAR-SHELTER.GI.RANCAEKEK-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="5" t="s">
         <v>26</v>
       </c>
@@ -8418,11 +7525,15 @@
       <c r="D22" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="E22" s="14">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 3-JABAR-SHELTER.GI.RANCAEKEK-NE8000.M14-UPE-02-JABAR-SHELTER.GI.CIKASUNGKA-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
@@ -8432,11 +7543,15 @@
       <c r="D23" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="E23" s="14">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 3-JABAR-SHELTER.GI.CIKASUNGKA-NE8000.M14-UPE-02-JABAR-SHELTER.GI.MALANGBONG-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
@@ -8446,11 +7561,15 @@
       <c r="D24" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="E24" s="14">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 3-JABAR-SHELTER.GI.MALANGBONG-NE8000.M14-UPE-02-JABAR-TASIK-NE8000.M14-UPE-04</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="5" t="s">
         <v>26</v>
       </c>
@@ -8460,11 +7579,15 @@
       <c r="D25" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="E25" s="14">
+        <v>1</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 3-JABAR-TASIK-NE8000.M14-UPE-04-JABAR-SHELTER.GI.GARUT-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
@@ -8474,11 +7597,15 @@
       <c r="D26" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="E26" s="14">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 4-JABAR-SHELTER.GI.GARUT-NE8000.M14-NPE-01-JABAR-SHELTER.ACC.CIGERELENG-NCS5504-P-01</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
@@ -8488,11 +7615,15 @@
       <c r="D27" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="E27" s="14">
+        <v>1</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 4-JABAR-SHELTER.CIGERELENG-NE8000.M14-NPE-02-JABAR-SHELTER.BANDUNG.SELATAN-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
@@ -8502,11 +7633,15 @@
       <c r="D28" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 4-JABAR-SHELTER.BANDUNG.SELATAN-NE8000.M14-NPE-01-JABAR-SHELTER.GI.GARUT-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
@@ -8516,11 +7651,15 @@
       <c r="D29" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 4-JABAR-SHELTER.GI.GARUT-NE8000.M14-NPE-01-JABAR-SHELTER.APJ-GARUT.KOTA-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
@@ -8530,11 +7669,15 @@
       <c r="D30" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JABAR-SHELTER.CIGERELENG-NE8000.M14-NPE-02-JABAR-SHELTER.ACC.CIGERELENG-NCS5504-P-01</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
@@ -8544,11 +7687,15 @@
       <c r="D31" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JABAR-SHELTER.CIGERELENG-NE8000.M14-NPE-02-JABAR-SHELTER.CIANJUR-NE8000.M14-NPE-01</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
@@ -8558,11 +7705,15 @@
       <c r="D32" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="E32" s="14">
+        <v>1</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JABAR-SHELTER.CIANJUR-NE8000.M14-NPE-01-JABAR-APJ.SUKABUMI-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="5" t="s">
         <v>38</v>
       </c>
@@ -8572,11 +7723,15 @@
       <c r="D33" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JABAR-APJ.SUKABUMI-NE8000.M14-UPE-03-JABAR-SHELTER.GI.LEMBURSITU-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
@@ -8586,11 +7741,15 @@
       <c r="D34" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JABAR-SHELTER.GI.LEMBURSITU-NE8000.M14-UPE-03-JABAR-SHELTER.GI.PELABUHAN.RATU-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
@@ -8600,11 +7759,15 @@
       <c r="D35" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="E35" s="14">
+        <v>1</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 5-JABAR-SHELTER.CIANJUR-NE8000.M14-NPE-01-JABAR-SHELTER.GI.LEMBURSITU-NE8000.M14-UPE-03</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="5" t="s">
         <v>53</v>
       </c>
@@ -8614,11 +7777,15 @@
       <c r="D36" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="E36" s="14">
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JABAR-SHELTER.KOSAMBI-NE8000.M14-NPE-01-JABAR-SHELTER.PINAYUNGAN-NE8000.M14-UPE-04</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="5" t="s">
         <v>53</v>
       </c>
@@ -8628,123 +7795,144 @@
       <c r="D37" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JABAR-SHELTER.KOSAMBI-NE8000.M14-NPE-01-JABAR-SUKAMANDI-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
+        <v>290</v>
+      </c>
+      <c r="E38" s="14">
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JABAR-SHELTER.GI.SUBANG-NE8000.M14-UPE-02-JABAR-SHELTER.PURWAKARTA-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
+        <v>291</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 6-JABAR-SHELTER.PURWAKARTA-NE8000.M14-UPE-02-JABAR-BANDUNG.UTARA-NE8000.M14-NPE-02</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="5" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
+        <v>293</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JABAR-SHELTER.CIAMIS-NE8000.M14-NPE-01-JABAR-MINI.POP.GANJARESIK-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
+        <v>294</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JABAR-MINI.POP.GANJARESIK-NE8000.M14-UPE-02-JABAR-MINI.POP.DARMARAJA-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
+        <v>295</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JABAR-MINI.POP.DARMARAJA-NE8000.M14-UPE-02-JABAR-ULP.SUMEDANG.KOTA-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
+        <v>296</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JABAR-ULP.SUMEDANG.KOTA-NE8000.M14-UPE-02-JABAR-ODC.UP3.SUMEDANG-NE8000.M14-UPE-02</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="D45" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>729</v>
+      <c r="E44" s="14">
+        <v>1</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>Ring 7-JABAR-ODC.UP3.SUMEDANG-NE8000.M14-UPE-02-JABAR-SHELTER.GI.SUMEDANG-NE8000.M14-UPE-01</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F3:F44">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8753,14 +7941,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7C4C64-188D-466E-817E-5F0AEA419870}">
   <dimension ref="B2:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -8773,7 +7962,7 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>529</v>
       </c>
     </row>
@@ -8787,8 +7976,8 @@
       <c r="D3" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>757</v>
+      <c r="E3" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -8801,8 +7990,8 @@
       <c r="D4" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>757</v>
+      <c r="E4" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -8815,8 +8004,8 @@
       <c r="D5" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>774</v>
+      <c r="E5" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -8829,8 +8018,8 @@
       <c r="D6" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>638</v>
+      <c r="E6" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -8843,8 +8032,8 @@
       <c r="D7" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>775</v>
+      <c r="E7" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -8857,8 +8046,8 @@
       <c r="D8" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>776</v>
+      <c r="E8" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -8871,8 +8060,8 @@
       <c r="D9" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>758</v>
+      <c r="E9" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -8885,8 +8074,8 @@
       <c r="D10" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>777</v>
+      <c r="E10" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -8899,8 +8088,8 @@
       <c r="D11" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>778</v>
+      <c r="E11" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -8913,8 +8102,8 @@
       <c r="D12" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>779</v>
+      <c r="E12" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -8927,8 +8116,8 @@
       <c r="D13" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>759</v>
+      <c r="E13" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -8941,8 +8130,8 @@
       <c r="D14" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>780</v>
+      <c r="E14" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -8955,8 +8144,8 @@
       <c r="D15" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>760</v>
+      <c r="E15" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -8969,8 +8158,8 @@
       <c r="D16" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>760</v>
+      <c r="E16" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -8983,8 +8172,8 @@
       <c r="D17" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>760</v>
+      <c r="E17" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -8997,8 +8186,8 @@
       <c r="D18" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>761</v>
+      <c r="E18" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -9011,8 +8200,8 @@
       <c r="D19" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>762</v>
+      <c r="E19" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -9025,8 +8214,8 @@
       <c r="D20" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>763</v>
+      <c r="E20" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -9039,8 +8228,8 @@
       <c r="D21" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>764</v>
+      <c r="E21" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -9053,8 +8242,8 @@
       <c r="D22" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>763</v>
+      <c r="E22" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -9067,8 +8256,8 @@
       <c r="D23" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>781</v>
+      <c r="E23" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -9081,8 +8270,8 @@
       <c r="D24" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>765</v>
+      <c r="E24" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -9095,8 +8284,8 @@
       <c r="D25" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>766</v>
+      <c r="E25" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -9109,8 +8298,8 @@
       <c r="D26" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>782</v>
+      <c r="E26" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -9123,8 +8312,8 @@
       <c r="D27" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>782</v>
+      <c r="E27" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -9137,8 +8326,8 @@
       <c r="D28" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>767</v>
+      <c r="E28" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -9151,8 +8340,8 @@
       <c r="D29" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>783</v>
+      <c r="E29" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -9165,8 +8354,8 @@
       <c r="D30" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>768</v>
+      <c r="E30" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -9179,8 +8368,8 @@
       <c r="D31" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>768</v>
+      <c r="E31" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -9193,8 +8382,8 @@
       <c r="D32" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>769</v>
+      <c r="E32" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -9207,8 +8396,8 @@
       <c r="D33" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>770</v>
+      <c r="E33" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -9221,8 +8410,8 @@
       <c r="D34" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>771</v>
+      <c r="E34" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -9235,8 +8424,8 @@
       <c r="D35" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>771</v>
+      <c r="E35" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -9249,8 +8438,8 @@
       <c r="D36" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>771</v>
+      <c r="E36" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -9263,8 +8452,8 @@
       <c r="D37" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>772</v>
+      <c r="E37" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -9277,8 +8466,8 @@
       <c r="D38" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>773</v>
+      <c r="E38" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -9291,8 +8480,8 @@
       <c r="D39" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>786</v>
+      <c r="E39" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -9305,8 +8494,8 @@
       <c r="D40" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>787</v>
+      <c r="E40" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -9319,8 +8508,8 @@
       <c r="D41" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>788</v>
+      <c r="E41" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -9333,8 +8522,8 @@
       <c r="D42" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>789</v>
+      <c r="E42" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -9347,8 +8536,8 @@
       <c r="D43" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>789</v>
+      <c r="E43" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -9361,8 +8550,8 @@
       <c r="D44" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>790</v>
+      <c r="E44" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -9375,8 +8564,8 @@
       <c r="D45" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>791</v>
+      <c r="E45" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -9389,8 +8578,8 @@
       <c r="D46" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>771</v>
+      <c r="E46" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -9403,8 +8592,8 @@
       <c r="D47" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>792</v>
+      <c r="E47" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -9417,8 +8606,8 @@
       <c r="D48" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>792</v>
+      <c r="E48" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -9431,8 +8620,8 @@
       <c r="D49" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>793</v>
+      <c r="E49" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -9445,8 +8634,8 @@
       <c r="D50" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>794</v>
+      <c r="E50" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -9459,8 +8648,8 @@
       <c r="D51" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>795</v>
+      <c r="E51" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -9473,8 +8662,8 @@
       <c r="D52" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>796</v>
+      <c r="E52" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -9487,8 +8676,8 @@
       <c r="D53" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>732</v>
+      <c r="E53" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -9501,8 +8690,8 @@
       <c r="D54" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>797</v>
+      <c r="E54" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -9515,8 +8704,8 @@
       <c r="D55" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>798</v>
+      <c r="E55" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -9529,8 +8718,8 @@
       <c r="D56" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>771</v>
+      <c r="E56" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -9543,8 +8732,8 @@
       <c r="D57" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>792</v>
+      <c r="E57" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -9557,8 +8746,8 @@
       <c r="D58" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>792</v>
+      <c r="E58" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -9571,8 +8760,8 @@
       <c r="D59" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>792</v>
+      <c r="E59" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -9585,8 +8774,8 @@
       <c r="D60" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>799</v>
+      <c r="E60" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -9599,8 +8788,8 @@
       <c r="D61" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>800</v>
+      <c r="E61" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -9613,8 +8802,8 @@
       <c r="D62" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>801</v>
+      <c r="E62" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -9627,8 +8816,8 @@
       <c r="D63" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="E63" s="17" t="s">
-        <v>802</v>
+      <c r="E63" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -9641,8 +8830,8 @@
       <c r="D64" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>803</v>
+      <c r="E64" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -9655,8 +8844,8 @@
       <c r="D65" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>804</v>
+      <c r="E65" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -9669,8 +8858,8 @@
       <c r="D66" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="E66" s="17" t="s">
-        <v>784</v>
+      <c r="E66" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -9683,8 +8872,8 @@
       <c r="D67" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>805</v>
+      <c r="E67" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:5">
@@ -9697,8 +8886,8 @@
       <c r="D68" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>806</v>
+      <c r="E68" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -9711,8 +8900,8 @@
       <c r="D69" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="E69" s="17" t="s">
-        <v>807</v>
+      <c r="E69" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:5">
@@ -9725,8 +8914,8 @@
       <c r="D70" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>808</v>
+      <c r="E70" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:5">
@@ -9739,8 +8928,8 @@
       <c r="D71" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E71" s="17" t="s">
-        <v>785</v>
+      <c r="E71" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -9753,8 +8942,8 @@
       <c r="D72" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>785</v>
+      <c r="E72" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:5">
@@ -9767,8 +8956,8 @@
       <c r="D73" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>784</v>
+      <c r="E73" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:5">
@@ -9781,8 +8970,8 @@
       <c r="D74" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="E74" s="17" t="s">
-        <v>784</v>
+      <c r="E74" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:5">
@@ -9795,8 +8984,8 @@
       <c r="D75" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>809</v>
+      <c r="E75" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:5">
@@ -9809,8 +8998,8 @@
       <c r="D76" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E76" s="17" t="s">
-        <v>810</v>
+      <c r="E76" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:5">
@@ -9823,8 +9012,8 @@
       <c r="D77" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E77" s="17" t="s">
-        <v>811</v>
+      <c r="E77" s="14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9836,15 +9025,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFF8A72-2FDC-4257-851F-AB40BDBF75D7}">
   <dimension ref="B2:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B68" sqref="B3:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -9857,7 +9047,7 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>529</v>
       </c>
     </row>
@@ -9871,8 +9061,8 @@
       <c r="D3" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>812</v>
+      <c r="E3" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -9885,8 +9075,8 @@
       <c r="D4" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>812</v>
+      <c r="E4" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -9899,8 +9089,8 @@
       <c r="D5" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>813</v>
+      <c r="E5" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -9913,8 +9103,8 @@
       <c r="D6" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>814</v>
+      <c r="E6" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -9927,8 +9117,8 @@
       <c r="D7" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>815</v>
+      <c r="E7" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -9941,8 +9131,8 @@
       <c r="D8" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>816</v>
+      <c r="E8" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -9955,8 +9145,8 @@
       <c r="D9" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>813</v>
+      <c r="E9" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -9969,8 +9159,8 @@
       <c r="D10" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>817</v>
+      <c r="E10" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -9983,8 +9173,8 @@
       <c r="D11" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>818</v>
+      <c r="E11" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -9997,8 +9187,8 @@
       <c r="D12" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>819</v>
+      <c r="E12" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -10011,8 +9201,8 @@
       <c r="D13" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>820</v>
+      <c r="E13" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -10025,8 +9215,8 @@
       <c r="D14" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>821</v>
+      <c r="E14" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -10039,8 +9229,8 @@
       <c r="D15" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>822</v>
+      <c r="E15" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -10053,8 +9243,8 @@
       <c r="D16" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>823</v>
+      <c r="E16" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -10067,8 +9257,8 @@
       <c r="D17" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>824</v>
+      <c r="E17" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -10081,8 +9271,8 @@
       <c r="D18" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>825</v>
+      <c r="E18" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -10095,8 +9285,8 @@
       <c r="D19" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>826</v>
+      <c r="E19" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -10109,8 +9299,8 @@
       <c r="D20" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>824</v>
+      <c r="E20" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -10123,8 +9313,8 @@
       <c r="D21" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>827</v>
+      <c r="E21" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -10137,8 +9327,8 @@
       <c r="D22" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>828</v>
+      <c r="E22" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -10151,8 +9341,8 @@
       <c r="D23" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>829</v>
+      <c r="E23" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -10165,8 +9355,8 @@
       <c r="D24" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>823</v>
+      <c r="E24" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -10179,8 +9369,8 @@
       <c r="D25" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>830</v>
+      <c r="E25" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -10193,8 +9383,8 @@
       <c r="D26" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>831</v>
+      <c r="E26" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -10207,8 +9397,8 @@
       <c r="D27" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>826</v>
+      <c r="E27" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -10221,8 +9411,8 @@
       <c r="D28" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>832</v>
+      <c r="E28" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -10235,8 +9425,8 @@
       <c r="D29" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>833</v>
+      <c r="E29" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -10249,8 +9439,8 @@
       <c r="D30" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>834</v>
+      <c r="E30" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -10263,8 +9453,8 @@
       <c r="D31" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>835</v>
+      <c r="E31" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -10277,8 +9467,8 @@
       <c r="D32" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>835</v>
+      <c r="E32" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -10291,8 +9481,8 @@
       <c r="D33" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>836</v>
+      <c r="E33" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -10305,8 +9495,8 @@
       <c r="D34" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>837</v>
+      <c r="E34" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -10319,8 +9509,8 @@
       <c r="D35" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>838</v>
+      <c r="E35" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -10333,8 +9523,8 @@
       <c r="D36" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>839</v>
+      <c r="E36" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -10347,8 +9537,8 @@
       <c r="D37" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>838</v>
+      <c r="E37" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -10361,8 +9551,8 @@
       <c r="D38" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>840</v>
+      <c r="E38" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -10375,8 +9565,8 @@
       <c r="D39" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>841</v>
+      <c r="E39" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -10389,8 +9579,8 @@
       <c r="D40" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>840</v>
+      <c r="E40" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -10403,8 +9593,8 @@
       <c r="D41" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>842</v>
+      <c r="E41" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -10417,8 +9607,8 @@
       <c r="D42" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>843</v>
+      <c r="E42" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -10431,8 +9621,8 @@
       <c r="D43" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>844</v>
+      <c r="E43" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -10445,8 +9635,8 @@
       <c r="D44" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>843</v>
+      <c r="E44" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -10459,8 +9649,8 @@
       <c r="D45" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>845</v>
+      <c r="E45" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -10473,8 +9663,8 @@
       <c r="D46" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>846</v>
+      <c r="E46" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -10487,8 +9677,8 @@
       <c r="D47" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>846</v>
+      <c r="E47" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -10501,8 +9691,8 @@
       <c r="D48" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E48" s="17" t="s">
-        <v>840</v>
+      <c r="E48" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:5">
@@ -10515,8 +9705,8 @@
       <c r="D49" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="E49" s="17" t="s">
-        <v>847</v>
+      <c r="E49" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -10529,8 +9719,8 @@
       <c r="D50" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E50" s="17" t="s">
-        <v>848</v>
+      <c r="E50" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -10543,8 +9733,8 @@
       <c r="D51" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>849</v>
+      <c r="E51" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -10557,8 +9747,8 @@
       <c r="D52" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E52" s="17" t="s">
-        <v>850</v>
+      <c r="E52" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:5">
@@ -10571,8 +9761,8 @@
       <c r="D53" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E53" s="17" t="s">
-        <v>851</v>
+      <c r="E53" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:5">
@@ -10585,8 +9775,8 @@
       <c r="D54" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="E54" s="17" t="s">
-        <v>852</v>
+      <c r="E54" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:5">
@@ -10599,8 +9789,8 @@
       <c r="D55" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="E55" s="17" t="s">
-        <v>853</v>
+      <c r="E55" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -10613,8 +9803,8 @@
       <c r="D56" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="E56" s="17" t="s">
-        <v>847</v>
+      <c r="E56" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:5">
@@ -10627,8 +9817,8 @@
       <c r="D57" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E57" s="17" t="s">
-        <v>847</v>
+      <c r="E57" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:5">
@@ -10641,8 +9831,8 @@
       <c r="D58" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="E58" s="17" t="s">
-        <v>840</v>
+      <c r="E58" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -10655,8 +9845,8 @@
       <c r="D59" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E59" s="17" t="s">
-        <v>854</v>
+      <c r="E59" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -10669,8 +9859,8 @@
       <c r="D60" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>747</v>
+      <c r="E60" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -10683,8 +9873,8 @@
       <c r="D61" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>855</v>
+      <c r="E61" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -10697,8 +9887,8 @@
       <c r="D62" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="E62" s="17" t="s">
-        <v>846</v>
+      <c r="E62" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -10711,8 +9901,8 @@
       <c r="D63" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="E63" s="17" t="s">
-        <v>856</v>
+      <c r="E63" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -10725,8 +9915,8 @@
       <c r="D64" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>846</v>
+      <c r="E64" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:5">
@@ -10739,8 +9929,8 @@
       <c r="D65" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>857</v>
+      <c r="E65" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -10753,8 +9943,8 @@
       <c r="D66" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E66" s="17" t="s">
-        <v>857</v>
+      <c r="E66" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -10767,8 +9957,8 @@
       <c r="D67" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="E67" s="17" t="s">
-        <v>858</v>
+      <c r="E67" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:5">
@@ -10781,8 +9971,8 @@
       <c r="D68" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="E68" s="17" t="s">
-        <v>859</v>
+      <c r="E68" s="14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10794,15 +9984,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D799BA18-8F82-4A65-84A4-0EF6CB2BBE81}">
   <dimension ref="B2:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45:I48"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B3:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -10815,7 +10006,7 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10829,8 +10020,8 @@
       <c r="D3" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>860</v>
+      <c r="E3" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -10843,8 +10034,8 @@
       <c r="D4" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>861</v>
+      <c r="E4" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -10857,8 +10048,8 @@
       <c r="D5" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>860</v>
+      <c r="E5" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -10871,8 +10062,8 @@
       <c r="D6" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>873</v>
+      <c r="E6" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -10885,8 +10076,8 @@
       <c r="D7" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>874</v>
+      <c r="E7" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -10899,8 +10090,8 @@
       <c r="D8" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>875</v>
+      <c r="E8" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -10913,8 +10104,8 @@
       <c r="D9" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>888</v>
+      <c r="E9" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -10927,8 +10118,8 @@
       <c r="D10" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>862</v>
+      <c r="E10" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -10941,8 +10132,8 @@
       <c r="D11" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>876</v>
+      <c r="E11" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -10955,8 +10146,8 @@
       <c r="D12" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>862</v>
+      <c r="E12" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -10969,8 +10160,8 @@
       <c r="D13" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>877</v>
+      <c r="E13" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -10983,8 +10174,8 @@
       <c r="D14" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>863</v>
+      <c r="E14" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -10997,8 +10188,8 @@
       <c r="D15" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>862</v>
+      <c r="E15" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -11011,8 +10202,8 @@
       <c r="D16" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>878</v>
+      <c r="E16" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -11025,8 +10216,8 @@
       <c r="D17" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>879</v>
+      <c r="E17" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -11039,8 +10230,8 @@
       <c r="D18" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>864</v>
+      <c r="E18" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -11053,8 +10244,8 @@
       <c r="D19" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>880</v>
+      <c r="E19" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -11067,8 +10258,8 @@
       <c r="D20" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>865</v>
+      <c r="E20" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -11081,8 +10272,8 @@
       <c r="D21" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>866</v>
+      <c r="E21" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -11095,8 +10286,8 @@
       <c r="D22" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>876</v>
+      <c r="E22" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -11109,8 +10300,8 @@
       <c r="D23" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>867</v>
+      <c r="E23" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -11123,8 +10314,8 @@
       <c r="D24" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>868</v>
+      <c r="E24" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -11137,8 +10328,8 @@
       <c r="D25" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>889</v>
+      <c r="E25" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -11151,8 +10342,8 @@
       <c r="D26" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>890</v>
+      <c r="E26" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -11165,8 +10356,8 @@
       <c r="D27" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>881</v>
+      <c r="E27" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -11179,8 +10370,8 @@
       <c r="D28" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>882</v>
+      <c r="E28" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -11193,8 +10384,8 @@
       <c r="D29" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>883</v>
+      <c r="E29" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -11207,8 +10398,8 @@
       <c r="D30" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>884</v>
+      <c r="E30" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -11221,8 +10412,8 @@
       <c r="D31" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>885</v>
+      <c r="E31" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -11235,8 +10426,8 @@
       <c r="D32" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>886</v>
+      <c r="E32" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -11249,8 +10440,8 @@
       <c r="D33" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>887</v>
+      <c r="E33" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -11263,8 +10454,8 @@
       <c r="D34" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>876</v>
+      <c r="E34" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -11277,8 +10468,8 @@
       <c r="D35" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>876</v>
+      <c r="E35" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -11291,8 +10482,8 @@
       <c r="D36" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>867</v>
+      <c r="E36" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -11305,8 +10496,8 @@
       <c r="D37" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>869</v>
+      <c r="E37" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -11319,8 +10510,8 @@
       <c r="D38" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>870</v>
+      <c r="E38" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -11333,8 +10524,8 @@
       <c r="D39" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>871</v>
+      <c r="E39" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -11347,8 +10538,8 @@
       <c r="D40" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>872</v>
+      <c r="E40" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -11361,8 +10552,8 @@
       <c r="D41" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>889</v>
+      <c r="E41" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:5">
@@ -11375,8 +10566,8 @@
       <c r="D42" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>889</v>
+      <c r="E42" s="14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11389,15 +10580,15 @@
   <dimension ref="B2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B33" sqref="B3:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -11410,7 +10601,7 @@
       <c r="D2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="3" t="s">
         <v>529</v>
       </c>
     </row>
@@ -11424,8 +10615,8 @@
       <c r="D3" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>891</v>
+      <c r="E3" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -11438,8 +10629,8 @@
       <c r="D4" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>892</v>
+      <c r="E4" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -11452,8 +10643,8 @@
       <c r="D5" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>893</v>
+      <c r="E5" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -11466,8 +10657,8 @@
       <c r="D6" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>894</v>
+      <c r="E6" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -11480,8 +10671,8 @@
       <c r="D7" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>895</v>
+      <c r="E7" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -11494,8 +10685,8 @@
       <c r="D8" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>896</v>
+      <c r="E8" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -11508,8 +10699,8 @@
       <c r="D9" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>897</v>
+      <c r="E9" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -11522,8 +10713,8 @@
       <c r="D10" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>898</v>
+      <c r="E10" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -11536,8 +10727,8 @@
       <c r="D11" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>899</v>
+      <c r="E11" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -11550,8 +10741,8 @@
       <c r="D12" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>900</v>
+      <c r="E12" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -11564,8 +10755,8 @@
       <c r="D13" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>901</v>
+      <c r="E13" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -11578,8 +10769,8 @@
       <c r="D14" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>677</v>
+      <c r="E14" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -11592,8 +10783,8 @@
       <c r="D15" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>902</v>
+      <c r="E15" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -11606,8 +10797,8 @@
       <c r="D16" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>913</v>
+      <c r="E16" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -11620,8 +10811,8 @@
       <c r="D17" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>903</v>
+      <c r="E17" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -11634,8 +10825,8 @@
       <c r="D18" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>904</v>
+      <c r="E18" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -11648,8 +10839,8 @@
       <c r="D19" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>914</v>
+      <c r="E19" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -11662,8 +10853,8 @@
       <c r="D20" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>905</v>
+      <c r="E20" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -11676,8 +10867,8 @@
       <c r="D21" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>905</v>
+      <c r="E21" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -11690,8 +10881,8 @@
       <c r="D22" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>915</v>
+      <c r="E22" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -11704,8 +10895,8 @@
       <c r="D23" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>905</v>
+      <c r="E23" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -11718,8 +10909,8 @@
       <c r="D24" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>906</v>
+      <c r="E24" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -11732,8 +10923,8 @@
       <c r="D25" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>907</v>
+      <c r="E25" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -11746,8 +10937,8 @@
       <c r="D26" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="E26" s="14" t="s">
-        <v>908</v>
+      <c r="E26" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -11760,8 +10951,8 @@
       <c r="D27" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>908</v>
+      <c r="E27" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -11774,8 +10965,8 @@
       <c r="D28" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>909</v>
+      <c r="E28" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -11788,8 +10979,8 @@
       <c r="D29" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>910</v>
+      <c r="E29" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -11802,8 +10993,8 @@
       <c r="D30" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>908</v>
+      <c r="E30" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -11816,8 +11007,8 @@
       <c r="D31" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>911</v>
+      <c r="E31" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -11830,8 +11021,8 @@
       <c r="D32" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>912</v>
+      <c r="E32" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -11844,8 +11035,8 @@
       <c r="D33" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="E33" s="14" t="s">
-        <v>916</v>
+      <c r="E33" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/data utilisasi.xlsx
+++ b/public/data utilisasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\myapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA6AB33-EF84-489E-8A3B-47642023163B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6914ED-7EAF-4ADA-B057-2F3327454C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
   </bookViews>
@@ -21,8 +21,8 @@
     <sheet name="jateng" sheetId="6" r:id="rId6"/>
     <sheet name="jatim" sheetId="7" r:id="rId7"/>
     <sheet name="balnus" sheetId="8" r:id="rId8"/>
-    <sheet name="kal" sheetId="9" r:id="rId9"/>
-    <sheet name="ibt" sheetId="10" r:id="rId10"/>
+    <sheet name="kalimantan" sheetId="9" r:id="rId9"/>
+    <sheet name="sulawesi" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sumbagteng!$B$2:$E$68</definedName>

--- a/public/data utilisasi.xlsx
+++ b/public/data utilisasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\myapp\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC48C74-7506-428D-959A-688BF36D9E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F2BCCA-AEA6-447D-9340-09D92ECF29B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{6836D58E-29B9-4D47-A867-BEE82B578EED}"/>
   </bookViews>
   <sheets>
     <sheet name="sumbagut" sheetId="1" r:id="rId1"/>
@@ -2578,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086B36CC-6BF7-4A6F-A4D4-40503F5C0013}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A58"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3670,10 +3670,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917118A0-60AE-46CB-8B43-93934C46C9DE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3725,7 +3726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="17">
         <v>1</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="17">
         <v>2</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="17">
         <v>2</v>
       </c>
@@ -3853,7 +3854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="17">
         <v>2</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="17">
         <v>2</v>
       </c>
@@ -3907,7 +3908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="17">
         <v>2</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="17">
         <v>3</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="17">
         <v>3</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="17">
         <v>4</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="17">
         <v>4</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="17">
         <v>4</v>
       </c>
@@ -4075,7 +4076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="17">
         <v>4</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="17">
         <v>4</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="17">
         <v>4</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="17">
         <v>4</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" s="17">
         <v>4</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="17">
         <v>5</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="17">
         <v>5</v>
       </c>
@@ -4262,7 +4263,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F31" xr:uid="{917118A0-60AE-46CB-8B43-93934C46C9DE}"/>
+  <autoFilter ref="A1:F31" xr:uid="{917118A0-60AE-46CB-8B43-93934C46C9DE}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4271,7 +4278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C7BD66-863C-455D-8F0D-8E1F7498274F}">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A44" workbookViewId="0">
       <selection activeCell="A70" sqref="A2:A70"/>
     </sheetView>
   </sheetViews>
@@ -5595,8 +5602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE57ADC-EF66-4A86-8D55-95202DAEC146}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:F70"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7324,7 +7331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE20B5F5-E631-460D-A915-E4D905B53D35}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -10738,8 +10745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFF8A72-2FDC-4257-851F-AB40BDBF75D7}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11997,8 +12004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D799BA18-8F82-4A65-84A4-0EF6CB2BBE81}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12826,11 +12833,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AE07E1-59F6-46A7-80B9-40A061385ED3}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12882,7 +12888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" s="17">
         <v>1</v>
       </c>
@@ -12900,7 +12906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -12918,7 +12924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" s="17">
         <v>1</v>
       </c>
@@ -12936,7 +12942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -12954,7 +12960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -13052,7 +13058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" s="17">
         <v>2</v>
       </c>
@@ -13070,7 +13076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" s="17">
         <v>2</v>
       </c>
@@ -13088,7 +13094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" s="17">
         <v>2</v>
       </c>
@@ -13106,7 +13112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" s="17">
         <v>2</v>
       </c>
@@ -13124,7 +13130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" s="17">
         <v>2</v>
       </c>
@@ -13142,7 +13148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6">
       <c r="A17" s="17">
         <v>2</v>
       </c>
@@ -13160,7 +13166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6">
       <c r="A18" s="17">
         <v>2</v>
       </c>
@@ -13178,7 +13184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1">
+    <row r="19" spans="1:6">
       <c r="A19" s="17">
         <v>2</v>
       </c>
@@ -13196,7 +13202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1">
+    <row r="20" spans="1:6">
       <c r="A20" s="17">
         <v>2</v>
       </c>
@@ -13214,7 +13220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6">
       <c r="A21" s="17">
         <v>2</v>
       </c>
@@ -13232,7 +13238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1">
+    <row r="22" spans="1:6">
       <c r="A22" s="17">
         <v>2</v>
       </c>
@@ -13250,7 +13256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6">
       <c r="A23" s="17">
         <v>2</v>
       </c>
@@ -13268,7 +13274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6">
       <c r="A24" s="17">
         <v>2</v>
       </c>
@@ -13286,7 +13292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6">
       <c r="A25" s="17">
         <v>2</v>
       </c>
@@ -13304,7 +13310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6">
       <c r="A26" s="17">
         <v>2</v>
       </c>
@@ -13322,7 +13328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6">
       <c r="A27" s="17">
         <v>2</v>
       </c>
@@ -13340,7 +13346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6">
       <c r="A28" s="17">
         <v>2</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6">
       <c r="A29" s="17">
         <v>2</v>
       </c>
@@ -13436,7 +13442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1">
+    <row r="33" spans="1:6">
       <c r="A33" s="17">
         <v>3</v>
       </c>
@@ -13534,7 +13540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1">
+    <row r="38" spans="1:6">
       <c r="A38" s="17">
         <v>4</v>
       </c>
@@ -13552,7 +13558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1">
+    <row r="39" spans="1:6">
       <c r="A39" s="17">
         <v>4</v>
       </c>
@@ -13570,7 +13576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1">
+    <row r="40" spans="1:6">
       <c r="A40" s="17">
         <v>4</v>
       </c>
@@ -13648,7 +13654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1">
+    <row r="44" spans="1:6">
       <c r="A44" s="17">
         <v>5</v>
       </c>
@@ -13686,7 +13692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1">
+    <row r="46" spans="1:6">
       <c r="A46" s="17">
         <v>5</v>
       </c>
@@ -13704,7 +13710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1">
+    <row r="47" spans="1:6">
       <c r="A47" s="17">
         <v>5</v>
       </c>
@@ -13740,7 +13746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="A49" s="17">
         <v>5</v>
       </c>
@@ -13756,7 +13762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" s="17">
         <v>5</v>
       </c>
@@ -13772,7 +13778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" s="17">
         <v>5</v>
       </c>
@@ -13789,13 +13795,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F51" xr:uid="{53AE07E1-59F6-46A7-80B9-40A061385ED3}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F51" xr:uid="{53AE07E1-59F6-46A7-80B9-40A061385ED3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>